--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44470B9-F9A6-4CFC-B310-BA2786E4259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="整体认识" sheetId="4" r:id="rId2"/>
+    <sheet name="初始化" sheetId="2" r:id="rId3"/>
+    <sheet name="动态更新机制" sheetId="5" r:id="rId4"/>
+    <sheet name="LevelStreaming和Level关系" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,32 +28,465 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AWorldSettings</t>
+  </si>
+  <si>
+    <t>世界分区是AWorldSettings的一个属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protected:</t>
+  </si>
+  <si>
+    <t>/** Holds parameters for NavigationSystem's creation. Set to Null will result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t>in NavigationSystem instance not being created for this world. Note that</t>
+  </si>
+  <si>
+    <t>if set NavigationSystemConfigOverride will be used instead. */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, BlueprintReadOnly, Category=World, AdvancedDisplay, Instanced, NoClear, meta=(NoResetToDefault))</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;UNavigationSystemConfig&gt; NavigationSystemConfig;</t>
+  </si>
+  <si>
+    <t>/** Overrides NavigationSystemConfig. */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient)</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;UNavigationSystemConfig&gt; NavigationSystemConfigOverride;</t>
+  </si>
+  <si>
+    <t>UPROPERTY(VisibleAnywhere, Category=WorldPartitionSetup, Instanced)</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;UWorldPartition&gt; WorldPartition;</t>
+  </si>
+  <si>
+    <t>世界分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> UWorldPartition</t>
+  </si>
+  <si>
+    <t>WorldPartition = InWorld-&gt;GetWorldPartition();</t>
+  </si>
+  <si>
+    <t>UWorldPartition* UWorld::GetWorldPartition() const</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>AWorldSettings* WorldSettings = GetWorldSettings(/*bCheckStreamingPersistent*/false, /*bChecked*/false);</t>
+  </si>
+  <si>
+    <t>return WorldSettings ? WorldSettings-&gt;GetWorldPartition() : nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>获取方式：通过World对象获取，然后内部在通过AWorldSettings获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后内部在通过AWorldSettings获取</t>
+  </si>
+  <si>
+    <t>创建：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition* UWorldPartition::CreateOrRepairWorldPartition(AWorldSettings* WorldSettings, TSubclassOf&lt;UWorldPartitionEditorHash&gt; EditorHashClass, TSubclassOf&lt;UWorldPartitionRuntimeHash&gt; RuntimeHashClass)</t>
+  </si>
+  <si>
+    <t>WorldPartition = NewObject&lt;UWorldPartition&gt;(WorldSettings);</t>
+  </si>
+  <si>
+    <t>WorldSettings-&gt;SetWorldPartition(WorldPartition);</t>
+  </si>
+  <si>
+    <t>非编辑器模式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式编译的时候下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在序列话操作里面实例化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载新的场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新场景World::BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用GameMode-&gt;StartPlay()函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部调用gameState-&gt;handleBeginPlay()函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部触发事件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameStateBase::HandleBeginPlay()</t>
+  </si>
+  <si>
+    <t>bReplicatedHasBegunPlay = true;</t>
+  </si>
+  <si>
+    <t>GetWorldSettings()-&gt;NotifyBeginPlay();</t>
+  </si>
+  <si>
+    <t>GetWorldSettings()-&gt;NotifyMatchStarted();</t>
+  </si>
+  <si>
+    <t>World Setting::NotifyMatchStarted函数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AWorldSettings::NotifyMatchStarted()</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>World-&gt;OnWorldMatchStarting.Broadcast();</t>
+  </si>
+  <si>
+    <t>World-&gt;bMatchStarted = true;</t>
+  </si>
+  <si>
+    <t>触发GameSetting的NotifyMatchStarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发World的OnWorldMatchStarting事件广播!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldPartition::OnWorldMatchStarting()</t>
+  </si>
+  <si>
+    <t>UWorldPartion提前注册了World的onWorldMatchStart事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体时机在：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(GetWorld()-&gt;IsGameWorld());</t>
+  </si>
+  <si>
+    <t>// Wait for any level streaming to complete</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+  </si>
+  <si>
+    <t>一直死等，知道LevelStreaming加载完毕！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::BlockTillLevelStreamingCompleted()</t>
+  </si>
+  <si>
     <r>
-      <t> </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死循环调用</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>UWorldPartition</t>
+      <t>：void UWorld::FlushLevelStreaming(EFlushLevelStreamingType FlushType)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断刷新异步加载的数据:FAsyncLoadingThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待加载完成后：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个类的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理什么：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionLevelStreamingDynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前UE4的流式关卡，在UE世界分区里面变成了：UWorldPartitionLevelStreamingDynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前需要自己加载，现在他自己帮助加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldSubSystem里面有一个UWorldPartitionSubsystem类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionSubsystem</t>
+  </si>
+  <si>
+    <t>UWorldPartitionSubsystem里面处理UpdateStreamingState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldSubSystem</t>
+  </si>
+  <si>
+    <t>新的SubSystem类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uworld::Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World的帧更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Tick里面调用InternalUpdateStreamingState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::InternalUpdateStreamingState()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternalUpdateStreamingState()通知所有SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionSubsystem被调用了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldPartitionSubsystem::UpdateStreamingState()</t>
+  </si>
+  <si>
+    <t>UWorldPartitionSubsystem::UpdateStreamingState()里面的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上就是增加了一个分区对应的SubSystem，之前的Tick里面调度InternalUpdateStreamingState，也会调度到他里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接调度World的UWorldPartition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition* Partition = GetWorldPartition();</t>
+  </si>
+  <si>
+    <t>Partition-&gt;UpdateStreamingState();</t>
+  </si>
+  <si>
+    <t>调度到了Partition，这个和World联系起来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition::UpdateStreamingState()函数里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GetWorld()-&gt;IsGameWorld())</t>
+  </si>
+  <si>
+    <t>StreamingPolicy-&gt;UpdateStreamingState();</t>
+  </si>
+  <si>
+    <t>调度到了StreamingPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionStreamingPolicy类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个区的意思就是：UWorldPartitionRuntimeCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeCell</t>
+  </si>
+  <si>
+    <t>里面包含了其对应的package资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell就是UWorldPartitionRuntimeLevelStreamingCell，内部有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeLevelStreamingCell</t>
+  </si>
+  <si>
+    <t>激活的cell创建LevelStreaming(UWorldPartitionLevelStreamingDynamic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度上面的levelstreaming对应的active函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入到world的StreamingLevels列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有需要卸载的cell列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有需要激活的cell列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有需要load的cell列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先按照重要程度排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用cell-&gt;Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度cell-&gt;Active()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionStreamingPolicy里面包含了已经加载的cells和激活的cells列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度上面的levelstreaming对应的load函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度cell-&gt;unload()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的levelstreaming对象指定:unload()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelStreaming-&gt;Unload();</t>
+  </si>
+  <si>
+    <t>创建的时候就设置为自己内部变量了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知所有SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接更新StreamingLevels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有streamlevels执行：StreamingLevel-&gt;UpdateStreamingState(bOutUpdateAgain, bOutRedetermineTarget);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面后面设置的就可以真实的异步去加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面主要将这个的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧的时候根据cell创建levelstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧怎么计算要加载和卸载的cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeSpatialHash</t>
+  </si>
+  <si>
+    <t>UWorldPartitionStreamingPolicy::UpdateStreamingState()函数里面处理就多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是在UWorldPartitionStreamingPolicy::UpdateStreamingState()里面获取的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +503,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +578,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -117,6 +602,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503501</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>113706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="5314950"/>
+          <a:ext cx="10590476" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>217780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="552450"/>
+          <a:ext cx="10361905" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,21 +952,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="5"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -403,4 +1160,589 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="P19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G41" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>103</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="初始化" sheetId="2" r:id="rId3"/>
     <sheet name="动态更新机制" sheetId="5" r:id="rId4"/>
     <sheet name="LevelStreaming和Level关系" sheetId="3" r:id="rId5"/>
+    <sheet name="Data Layer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,12 +482,98 @@
     <t>其实就是在UWorldPartitionStreamingPolicy::UpdateStreamingState()里面获取的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UWorldPartition </t>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeSpatialHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UWorldPartition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据分别放在不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>UWorldPartitionRuntimeSpatialHash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上面，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>UWorldPartitionRuntimeSpatialHash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有管理自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSpatialHashStreamingGrid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGridLevel</t>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGridLayerCell</t>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeSpatialHashCell</t>
+  </si>
+  <si>
+    <t>HashCell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +644,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -578,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,6 +687,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1436,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
@@ -1745,4 +1846,61 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C28" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C45" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>// Wait for any level streaming to complete</t>
-  </si>
-  <si>
-    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
   </si>
   <si>
     <t>一直死等，知道LevelStreaming加载完毕！！！</t>
@@ -567,6 +564,10 @@
   </si>
   <si>
     <t>HashCell</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1077,19 +1078,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1098,17 +1099,17 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1278,42 +1279,42 @@
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1327,25 +1328,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -1487,10 +1488,10 @@
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.2">
@@ -1500,30 +1501,30 @@
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
@@ -1548,7 +1549,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1556,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1564,12 +1565,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,12 +1578,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1590,14 +1591,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1605,19 +1606,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -1625,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -1633,12 +1634,12 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -1646,25 +1647,25 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -1672,20 +1673,20 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
@@ -1695,7 +1696,7 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -1708,15 +1709,15 @@
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -1724,20 +1725,20 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -1745,33 +1746,33 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -1779,33 +1780,33 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -1813,17 +1814,17 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -1860,42 +1861,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4AB21-84F3-433F-9BD8-F39522F2976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="动态更新机制" sheetId="5" r:id="rId4"/>
     <sheet name="LevelStreaming和Level关系" sheetId="3" r:id="rId5"/>
     <sheet name="Data Layer" sheetId="6" r:id="rId6"/>
+    <sheet name="UDataLayerSubsystem" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="168">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,9 +82,6 @@
   <si>
     <t>世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> UWorldPartition</t>
   </si>
   <si>
     <t>WorldPartition = InWorld-&gt;GetWorldPartition();</t>
@@ -569,11 +568,154 @@
     <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UDataLayerSubsystem</t>
+  </si>
+  <si>
+    <t>UE5的大世界，可以通过DataLayer将不同的物体防止在不同的层上面，通过这个层可以集体设置物体显示不显示，或者加载不加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便进行高中低配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World的DataLayer系统，是针对World级别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>新地图加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::InitWorld(const InitializationValues IVS)</t>
+  </si>
+  <si>
+    <t>InitializeSubsystems();</t>
+  </si>
+  <si>
+    <t>void UWorld::InitializeSubsystems()</t>
+  </si>
+  <si>
+    <t>SubsystemCollection.Initialize(this);</t>
+  </si>
+  <si>
+    <t>World初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在初始化里面首先加载SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步就是加载SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集所有的World-SubSystem，进行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize</t>
+  </si>
+  <si>
+    <t>PostInitialize</t>
+  </si>
+  <si>
+    <t>通知初始化事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostInitializeSubsystems();</t>
+  </si>
+  <si>
+    <t>最后一步就是POST SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::PostInitializeSubsystems()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsystemCollection.PostInitialize(this);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorld(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>CleanupWorldInternal(bSessionEnded, bCleanupResources, NewWorld);</t>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorldInternal(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>SubsystemCollection.Deinitialize();</t>
+  </si>
+  <si>
+    <t>最后一步销毁SubSystem，但是和Actor的销毁还是不在一起，提前于Actor销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEditorEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>void UEditorEngine::EndPlayMap()</t>
+  </si>
+  <si>
+    <t>EndPlayMap();</t>
+  </si>
+  <si>
+    <t>TeardownPlaySession(ThisContext);</t>
+  </si>
+  <si>
+    <t>void UEditorEngine::TeardownPlaySession(FWorldContext&amp; PieWorldContext)</t>
+  </si>
+  <si>
+    <t>PlayWorld-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t> UWorldPartition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,7 +865,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -766,7 +914,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1054,11 +1208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,25 +1226,25 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1099,53 +1253,53 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
         <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -1224,37 +1378,37 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1279,42 +1433,42 @@
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +1479,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -1336,62 +1490,62 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1399,132 +1553,132 @@
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="P19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O66"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1549,7 +1703,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1565,12 +1719,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1578,12 +1732,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1591,14 +1745,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1606,19 +1760,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -1626,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -1634,12 +1788,12 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -1647,25 +1801,25 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -1673,35 +1827,35 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -1709,15 +1863,15 @@
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -1725,20 +1879,20 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -1746,33 +1900,33 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -1780,33 +1934,33 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -1814,17 +1968,17 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1850,10 +2004,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -1861,42 +2015,294 @@
   <sheetData>
     <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4AADD-8FF1-4882-B509-E21C26BEADE8}">
+  <dimension ref="B4:T52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>151</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+      <c r="F38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
+      <c r="G39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
+      <c r="G41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+      <c r="G43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E46" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4AB21-84F3-433F-9BD8-F39522F2976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE09C8-35EC-4B8E-BF4B-E067FEBA8ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="整体认识" sheetId="4" r:id="rId2"/>
-    <sheet name="初始化" sheetId="2" r:id="rId3"/>
-    <sheet name="动态更新机制" sheetId="5" r:id="rId4"/>
-    <sheet name="LevelStreaming和Level关系" sheetId="3" r:id="rId5"/>
-    <sheet name="Data Layer" sheetId="6" r:id="rId6"/>
-    <sheet name="UDataLayerSubsystem" sheetId="7" r:id="rId7"/>
+    <sheet name="编辑器模式-初始化" sheetId="2" r:id="rId3"/>
+    <sheet name="非编辑器模式-初始化" sheetId="8" r:id="rId4"/>
+    <sheet name="动态更新机制" sheetId="5" r:id="rId5"/>
+    <sheet name="LevelStreaming和Level关系" sheetId="3" r:id="rId6"/>
+    <sheet name="Data Layer" sheetId="6" r:id="rId7"/>
+    <sheet name="UDataLayerSubsystem" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="368">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,236 +480,881 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UWorldPartition </t>
+    <t>FSpatialHashStreamingGridLevel</t>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGridLayerCell</t>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeSpatialHashCell</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDataLayerSubsystem</t>
+  </si>
+  <si>
+    <t>UE5的大世界，可以通过DataLayer将不同的物体防止在不同的层上面，通过这个层可以集体设置物体显示不显示，或者加载不加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便进行高中低配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World的DataLayer系统，是针对World级别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>新地图加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::InitWorld(const InitializationValues IVS)</t>
+  </si>
+  <si>
+    <t>InitializeSubsystems();</t>
+  </si>
+  <si>
+    <t>void UWorld::InitializeSubsystems()</t>
+  </si>
+  <si>
+    <t>SubsystemCollection.Initialize(this);</t>
+  </si>
+  <si>
+    <t>World初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在初始化里面首先加载SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步就是加载SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集所有的World-SubSystem，进行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize</t>
+  </si>
+  <si>
+    <t>PostInitialize</t>
+  </si>
+  <si>
+    <t>通知初始化事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostInitializeSubsystems();</t>
+  </si>
+  <si>
+    <t>最后一步就是POST SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::PostInitializeSubsystems()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsystemCollection.PostInitialize(this);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorld(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>CleanupWorldInternal(bSessionEnded, bCleanupResources, NewWorld);</t>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorldInternal(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>SubsystemCollection.Deinitialize();</t>
+  </si>
+  <si>
+    <t>最后一步销毁SubSystem，但是和Actor的销毁还是不在一起，提前于Actor销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEditorEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>void UEditorEngine::EndPlayMap()</t>
+  </si>
+  <si>
+    <t>EndPlayMap();</t>
+  </si>
+  <si>
+    <t>TeardownPlaySession(ThisContext);</t>
+  </si>
+  <si>
+    <t>void UEditorEngine::TeardownPlaySession(FWorldContext&amp; PieWorldContext)</t>
+  </si>
+  <si>
+    <t>PlayWorld-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t> UWorldPartition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldPartition::OnWorldMatchStarting()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UWorldPartitionRuntimeCell : public UObject</t>
+  </si>
+  <si>
+    <t>class UWorldPartitionRuntimeSpatialHashCell : public UWorldPartitionRuntimeCell</t>
+  </si>
+  <si>
+    <t>class UWorldPartitionRuntimeLevelStreamingCell : public UWorldPartitionRuntimeSpatialHashCell</t>
+  </si>
+  <si>
+    <t>大世界的CELL格子信息，里面包含了对应的Actor和package资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界可以设置多个grid，但是每个grid下面就是cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULevelStreaming</t>
+  </si>
+  <si>
+    <t>ULevelStreamingDynamic</t>
+  </si>
+  <si>
+    <t>class ENGINE_API ULevelStreamingDynamic : public ULevelStreaming</t>
+  </si>
+  <si>
+    <t>UWorldPartitionLevelStreamingDynamic</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorldPartitionLevelStreamingDynamic : public ULevelStreamingDynamic</t>
+  </si>
+  <si>
+    <t>每一个CELL内部都包含一个UWorldPartitionLevelStreamingDynamic，也就是一个CELL就包含一个level stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeHash</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorldPartitionRuntimeSpatialHash : public UWorldPartitionRuntimeHash</t>
+  </si>
+  <si>
+    <t>UWorldPartition内对整个地图管理的就是TObjectPtr&lt;UWorldPartitionRuntimeHash&gt; RuntimeHash;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH里面包含的所有的Grids列表，每个Grid里面有包含了GridLevels列表，GridLevel 里面有包含了LayerCells列表，每一个LayerCell里面包含GridCells列表，这个里面就是下面的CELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGrid&gt; StreamingGrids;</t>
+  </si>
+  <si>
+    <t>所有的Grids列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (const FSpatialHashStreamingGrid&amp; StreamingGrid : StreamingGrids)</t>
+  </si>
+  <si>
+    <t>if (!StreamingGrid.bClientOnlyVisible || bShouldConsiderClientOnlyVisible)</t>
+  </si>
+  <si>
+    <t>for (const FSpatialHashStreamingGridLevel&amp; GridLevel : StreamingGrid.GridLevels)</t>
+  </si>
+  <si>
+    <t>for (const FSpatialHashStreamingGridLayerCell&amp; LayerCell : GridLevel.LayerCells)</t>
+  </si>
+  <si>
+    <t>for (const UWorldPartitionRuntimeSpatialHashCell* Cell : LayerCell.GridCells)</t>
+  </si>
+  <si>
+    <t>总体上就是WP模式下，会有多个Grid，每个Grid下面有多个GridLevel，每个GridLevel下面有多个LayerCell，每个LayerCell下面有多个GridCells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGrid&gt; StreamingGrids</t>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGrid</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGridLevel&gt; GridLevels;</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGridLayerCell&gt; LayerCells;</t>
+  </si>
+  <si>
+    <t>TArray&lt;TObjectPtr&lt;UWorldPartitionRuntimeSpatialHashCell&gt;&gt; GridCells;</t>
+  </si>
+  <si>
+    <t>TArray&lt;FName&gt; DataLayers;</t>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeLevelStreamingCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutable TObjectPtr&lt;class UWorldPartitionLevelStreamingDynamic&gt; LevelStreaming;</t>
+  </si>
+  <si>
+    <t>UWorldPartition</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;UWorldPartitionRuntimeHash&gt; RuntimeHash;</t>
+  </si>
+  <si>
+    <t>WP对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了Runtimehash对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的GridLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的LayerCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个cell都包含了一个LevelStreaming对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个CELL都包含了一个levelstreaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionLevelStreamingDynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个cell都包含一个Level Streaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE5的WP是按照CELL管理的，每个CELL里面都有一个level streaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载新场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::PostInitializeSubsystems()</t>
+  </si>
+  <si>
+    <t>void UWorldPartitionSubsystem::PostInitialize()</t>
+  </si>
+  <si>
+    <t>WorldPartition-&gt;Initialize(GetWorld(), FTransform::Identity);</t>
+  </si>
+  <si>
+    <t>void UWorldPartition::Initialize(UWorld* InWorld, const FTransform&amp; InTransform)</t>
+  </si>
+  <si>
+    <t>void UWorldPartition::OnBeginPlay()</t>
+  </si>
+  <si>
+    <t>GenerateStreaming();</t>
+  </si>
+  <si>
+    <t>RuntimeHash-&gt;OnBeginPlay();</t>
+  </si>
+  <si>
+    <t>创建所有的grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncPackage::EventDrivenSerializeExport(int32 LocalExportIndex)</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::ProcessImportsAndExports_Event()</t>
+  </si>
+  <si>
+    <t>void FAsyncPackage::Event_ProcessImportsAndExports()</t>
+  </si>
+  <si>
+    <t>异步加载完资源后就会执行其对应的反序列化Serialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object-&gt;Serialize(*Linker);</t>
+  </si>
+  <si>
+    <t>UWorldPartition反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全就是在void AWorldSettings::Serialize( FArchive&amp; Ar )函数里面反序列出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其本身也是AWorldSettings的一个成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有对象成员变量，都是在父类Object的Serialize里面反序列化的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UObject::Serialize(FStructuredArchive::FRecord Record)</t>
+  </si>
+  <si>
+    <t>SerializeScriptProperties(Record.EnterField(SA_FIELD_NAME(TEXT("Properties"))));</t>
+  </si>
+  <si>
+    <t>！！！！初始化成员变量对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UWorldPartition父类的反序列化中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的反序列化，就构造了的WorldPartition最核心的RuntimeHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个在异步的线程里面操作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>第一步先加载资源，涉及到反序列化数据对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部开始初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldDelegates::OnPreWorldInitialization.Broadcast(this, IVS);</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Get().AddLevel(PersistentLevel);</t>
+  </si>
+  <si>
+    <t>FWorldDelegates::OnPostWorldInitialization.Broadcast(this, IVS);</t>
+  </si>
+  <si>
+    <t>广播完毕事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知开始创建事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置必要的PersistentLevel函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知所有SubSystem，初始化完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译所有的WorldSubSystem，执行PostInitialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用了UWorldPartitionSubsystem::PostInitialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界分区的SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取世界分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition* WorldPartition = GetWorldPartition()</t>
+  </si>
+  <si>
+    <t>执行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界分区初始化完毕的回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnWorldPartitionInitialized.Broadcast(this);</t>
+  </si>
+  <si>
+    <t>第三部World的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;BeginPlay();</t>
+  </si>
+  <si>
+    <t>void UWorld::BeginPlay()</t>
+  </si>
+  <si>
+    <t>调用World的BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用各个SubSystem的OnWorldBeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (UWorldSubsystem* WorldSubsystem : WorldSubsystems)</t>
+  </si>
+  <si>
+    <t>WorldSubsystem-&gt;OnWorldBeginPlay(*this);</t>
+  </si>
+  <si>
+    <t>调用gameMode的BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode-&gt;StartPlay();</t>
+  </si>
+  <si>
+    <t>AGameModeBase* const GameMode = GetAuthGameMode();</t>
+  </si>
+  <si>
+    <t>if (GameMode)</t>
+  </si>
+  <si>
+    <t>if (GetAISystem())</t>
+  </si>
+  <si>
+    <t>GetAISystem()-&gt;StartPlay();</t>
+  </si>
+  <si>
+    <t>GameMode的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AISystem的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发World 的StartPlay事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnWorldBeginPlay.Broadcast();</t>
+  </si>
+  <si>
+    <t>需要看看在啥时候注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE_OneParam(FOnWorldInitializedActors, const FActorsInitializedParams&amp;);</t>
+  </si>
+  <si>
+    <t>FOnWorldInitializedActors OnActorsInitialized;</t>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE(FOnWorldBeginPlay);</t>
+  </si>
+  <si>
+    <t>FOnWorldBeginPlay OnWorldBeginPlay;</t>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE(FOnMatchStarting);</t>
+  </si>
+  <si>
+    <t>FOnMatchStarting OnWorldMatchStarting;</t>
+  </si>
+  <si>
+    <t>World的事件变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGameModeBase::StartPlay()</t>
+  </si>
+  <si>
+    <t>先调用gameState的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameState-&gt;HandleBeginPlay();</t>
+  </si>
+  <si>
+    <t>触发GameSetting的BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发GameSetting的MatchStarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AWorldSettings::NotifyMatchStarted()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发World的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而World注册了该事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发大世界的MatchStarting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会阻塞式的调用GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点看下面，这个函数里面会触发UWorldPartition::OnWorldMatchStarting()，这个里面会阻塞式的调用GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个greidlevel的意思就是按照CELL的大小，根据2C次幂，看看能划分多少层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和Level的关系???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个ULevelStreaming内部创建自己Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::UpdateLevelStreaming()</t>
+  </si>
+  <si>
+    <t>void ULevelStreaming::UpdateStreamingState(bool&amp; bOutUpdateAgain, bool&amp; bOutRedetermineTarget)</t>
+  </si>
+  <si>
+    <t>bool UWorldPartitionLevelStreamingDynamic::RequestLevel(UWorld* InPersistentWorld, bool bInAllowLevelLoadRequests, EReqLevelBlock InBlockPolicy)</t>
+  </si>
+  <si>
+    <t>记载场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRuntimeLevel();</t>
+  </si>
+  <si>
+    <t>void UWorldPartitionLevelStreamingDynamic::CreateRuntimeLevel()</t>
+  </si>
+  <si>
+    <t>内部创建Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置不同的物体在不同的layer，可以进行单独的控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设置不同的层的状态，例如不加载等等，这样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样子可以实现在低端机器上不显示某些层来提高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldPartition-&gt;Initialize(GetWorld(), FTransform::Identity);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载对应的CELL的时候，其就在包里面被构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncPackage::EventDrivenCreateExport(int32 LocalExportIndex)</t>
+  </si>
+  <si>
+    <t>Export.Object = StaticConstructObject_Internal(Params);</t>
+  </si>
+  <si>
+    <t>void ULevel::PostInitProperties()</t>
+  </si>
+  <si>
+    <t>void ULevel::Serialize( FArchive&amp; Ar )</t>
+  </si>
+  <si>
+    <t>void ULevelStreaming::AsyncLevelLoadComplete(const FName&amp; InPackageName, UPackage* InLoadedPackage, EAsyncLoadingResult::Type Result)</t>
+  </si>
+  <si>
+    <t>LevelStream加载完成的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevelStreaming::PrepareLoadedLevel(ULevel* InLevel, UPackage* InLevelPackage, int32 InPIEInstanceID)</t>
+  </si>
+  <si>
+    <t>广播level加载完成的事件等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetLoadedLevel(InLevel);</t>
+  </si>
+  <si>
+    <t>OnLevelLoaded.Broadcast();</t>
+  </si>
+  <si>
+    <t>InLevel-&gt;HandleLegacyMapBuildData();</t>
+  </si>
+  <si>
+    <t>void ULevelStreaming::SetLoadedLevel(ULevel* Level)</t>
+  </si>
+  <si>
+    <t>CurrentState = (LoadedLevel-&gt;bIsVisible ? ECurrentState::LoadedVisible : ECurrentState::LoadedNotVisible);</t>
+  </si>
+  <si>
+    <t>加载完了，设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC.AddLevel(LoadedLevel);</t>
+  </si>
+  <si>
+    <t>World-&gt;UpdateStreamingLevelShouldBeConsidered(this);</t>
+  </si>
+  <si>
+    <t>OnLevelLoadedChanged(LoadedLevel);</t>
+  </si>
+  <si>
+    <t>LoadedLevel-&gt;OnLevelLoaded();</t>
+  </si>
+  <si>
+    <t>广播事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！加入World::Levels的时机是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::StartPlay()</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+  </si>
+  <si>
+    <t>阻塞式加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过世界分区，开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在这个里面加入到world::levels里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushLevelStreaming(EFlushLevelStreamingType::Full);</t>
+  </si>
+  <si>
+    <t>UpdateLevelStreaming();</t>
+  </si>
+  <si>
+    <t>FStreamingLevelPrivateAccessor::UpdateStreamingState(StreamingLevel, bUpdateAgain, bRedetermineTarget);</t>
+  </si>
+  <si>
+    <t>World-&gt;AddToWorld(LoadedLevel, LevelTransform, !bShouldBlockOnLoad);</t>
+  </si>
+  <si>
+    <t>void UWorld::AddToWorld( ULevel* Level, const FTransform&amp; LevelTransform, bool bConsiderTimeLimit )</t>
+  </si>
+  <si>
+    <t>Levels.AddUnique( Level );</t>
+  </si>
+  <si>
+    <t>这个地方将各个Level加入到World::levels对象里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::RemoveFromWorld( ULevel* Level, bool bAllowIncrementalRemoval )</t>
+  </si>
+  <si>
+    <t>同理，删除自己是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LevelStreaming </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，在UE5的大世界分区里面，每个CELL内部都有一个LevelStreaming，在LevelStream加载的时候会默认创建对应的Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在LevelStream加载成功之后，会将其对应的Level加载到World::levels里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己被删除的时候，会将其Level从World:levels里面去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;class ULevel&gt; LoadedLevel;</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;class ULevel&gt; PendingUnloadLevel;</t>
+  </si>
+  <si>
+    <t>PostInitPropertis函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面的数据都反序列化好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitializeSubsystems();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UWorldPartitionRuntimeSpatialHash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FSpatialHashStreamingGrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UWorldPartition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据分别放在不同的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>UWorldPartitionRuntimeSpatialHash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上面，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>UWorldPartitionRuntimeSpatialHash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有管理自己的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSpatialHashStreamingGrid</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSpatialHashStreamingGridLevel</t>
-  </si>
-  <si>
-    <t>FSpatialHashStreamingGridLayerCell</t>
-  </si>
-  <si>
-    <t>UWorldPartitionRuntimeSpatialHashCell</t>
-  </si>
-  <si>
-    <t>HashCell</t>
-  </si>
-  <si>
-    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <t xml:space="preserve">在非编辑器下，序列化场景的WorldSetting时，对应的UWorldPartitionRuntimeSpatialHash，和其Cell，Cell里面的LevelStreaming都已经生成好了 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续仅仅是后台的加载LevelStream里面的Level而已</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UDataLayerSubsystem</t>
-  </si>
-  <si>
-    <t>UE5的大世界，可以通过DataLayer将不同的物体防止在不同的层上面，通过这个层可以集体设置物体显示不显示，或者加载不加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便进行高中低配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>World的DataLayer系统，是针对World级别的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>新地图加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::InitWorld(const InitializationValues IVS)</t>
-  </si>
-  <si>
-    <t>InitializeSubsystems();</t>
-  </si>
-  <si>
-    <t>void UWorld::InitializeSubsystems()</t>
-  </si>
-  <si>
-    <t>SubsystemCollection.Initialize(this);</t>
-  </si>
-  <si>
-    <t>World初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在初始化里面首先加载SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一步就是加载SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集所有的World-SubSystem，进行初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initialize</t>
-  </si>
-  <si>
-    <t>PostInitialize</t>
-  </si>
-  <si>
-    <t>通知初始化事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostInitializeSubsystems();</t>
-  </si>
-  <si>
-    <t>最后一步就是POST SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::PostInitializeSubsystems()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsystemCollection.PostInitialize(this);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>WorldContext.World()-&gt;CleanupWorld();</t>
-  </si>
-  <si>
-    <t>void UWorld::CleanupWorld(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
-  </si>
-  <si>
-    <t>CleanupWorldInternal(bSessionEnded, bCleanupResources, NewWorld);</t>
-  </si>
-  <si>
-    <t>void UWorld::CleanupWorldInternal(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
-  </si>
-  <si>
-    <t>SubsystemCollection.Deinitialize();</t>
-  </si>
-  <si>
-    <t>最后一步销毁SubSystem，但是和Actor的销毁还是不在一起，提前于Actor销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UEditorEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
-  </si>
-  <si>
-    <t>void UEditorEngine::EndPlayMap()</t>
-  </si>
-  <si>
-    <t>EndPlayMap();</t>
-  </si>
-  <si>
-    <t>TeardownPlaySession(ThisContext);</t>
-  </si>
-  <si>
-    <t>void UEditorEngine::TeardownPlaySession(FWorldContext&amp; PieWorldContext)</t>
-  </si>
-  <si>
-    <t>PlayWorld-&gt;CleanupWorld();</t>
-  </si>
-  <si>
-    <t> UWorldPartition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Unloaded);</t>
+  </si>
+  <si>
+    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Loaded);</t>
+  </si>
+  <si>
+    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Activated);</t>
+  </si>
+  <si>
+    <t>if (UDataLayerSubsystem* DataLayerSubsystem = GetWorld()-&gt;GetSubsystem&lt;UDataLayerSubsystem&gt;())</t>
+  </si>
+  <si>
+    <t>可以看出来，UE5所谓的per Actor per file，那个每一个CELL里面的LevelStreaming，其内部的Level就是一个文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +1362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,13 +1439,6 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,13 +1493,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>503501</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>113706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1865,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -1420,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B6:C23"/>
+  <dimension ref="B1:U151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1431,44 +2070,713 @@
     <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="6"/>
+      <c r="E18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D20" s="6"/>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="6"/>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D26" s="6"/>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C38" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="P45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C46" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="R47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
+      <c r="T49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C84" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C85" s="2"/>
+      <c r="D85" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C86" s="2"/>
+      <c r="D86" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C87" s="2"/>
+      <c r="D87" t="s">
+        <v>300</v>
+      </c>
+      <c r="R87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C88" s="2"/>
+      <c r="E88" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C89" s="2"/>
+      <c r="D89" t="s">
+        <v>303</v>
+      </c>
+      <c r="L89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C92" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C94" s="2"/>
+      <c r="D94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C95" s="2"/>
+      <c r="D95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>314</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>224</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D109" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>329</v>
+      </c>
+      <c r="I125" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D127" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D128" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F138" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>334</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="J142" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="J144" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="146" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="J146" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I147" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I148" s="2"/>
+      <c r="J148" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K148" s="2"/>
+      <c r="P148" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I150" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="J151" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -1480,172 +2788,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:P44"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="F14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="F15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="G16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="F17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="G19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="G20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="P19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
-        <v>50</v>
+      <c r="J34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
-        <v>51</v>
-      </c>
+      <c r="J36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J37" t="s">
-        <v>126</v>
-      </c>
+      <c r="J37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
       <c r="P37" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.2">
@@ -1653,31 +2971,117 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
+    <row r="39" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G41" s="7" t="s">
+    <row r="59" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G59" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="H42" t="s">
+    <row r="60" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="H43" t="s">
+    <row r="61" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I44" t="s">
+    <row r="62" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
         <v>59</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1689,11 +3093,580 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE2F34-037F-4CB7-B392-0E5907AFDF56}">
+  <dimension ref="A2:S104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>250</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>259</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E65" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I77" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="J80" t="s">
+        <v>38</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="J81" t="s">
+        <v>39</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
+        <v>287</v>
+      </c>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="N83" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
+        <v>43</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="N85" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="N86" t="s">
+        <v>163</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S87" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>269</v>
+      </c>
+      <c r="K90" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>273</v>
+      </c>
+      <c r="J95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P103" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,70 +3961,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:C45"/>
+  <dimension ref="B2:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C28" s="8" t="s">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C34" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C40" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C45" s="8" t="s">
-        <v>125</v>
-      </c>
+    <row r="9" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="23" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="30" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="36" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="42" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="47" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C47" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2060,249 +4137,287 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4AADD-8FF1-4882-B509-E21C26BEADE8}">
-  <dimension ref="B4:T52"/>
+  <dimension ref="B4:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="L24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="2" t="s">
+      <c r="L25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="L23" s="1"/>
-    </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
         <v>132</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6" t="s">
+      <c r="L39" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" t="s">
+    </row>
+    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+      <c r="F44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+      <c r="G45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
         <v>151</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D36" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E37" s="2" t="s">
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-      <c r="F38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E39" s="2"/>
-      <c r="G39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
-      <c r="F40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E41" s="2"/>
-      <c r="G41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E42" s="2"/>
-      <c r="F42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E43" s="2"/>
-      <c r="G43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E46" s="2" t="s">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
+      <c r="P58" s="1" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="6:16" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="6:16" x14ac:dyDescent="0.2">
-      <c r="G50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="6:16" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="6:16" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
-        <v>159</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE09C8-35EC-4B8E-BF4B-E067FEBA8ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B516C-223E-4153-A0E1-65B8F3622A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="非编辑器模式-初始化" sheetId="8" r:id="rId4"/>
     <sheet name="动态更新机制" sheetId="5" r:id="rId5"/>
     <sheet name="LevelStreaming和Level关系" sheetId="3" r:id="rId6"/>
-    <sheet name="Data Layer" sheetId="6" r:id="rId7"/>
-    <sheet name="UDataLayerSubsystem" sheetId="7" r:id="rId8"/>
+    <sheet name="UDataLayerSubsystem" sheetId="7" r:id="rId7"/>
+    <sheet name="初次进入时阻塞加载原因" sheetId="9" r:id="rId8"/>
+    <sheet name="Grid-CELL计算方式" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="417">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,852 +495,837 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UE5的大世界，可以通过DataLayer将不同的物体防止在不同的层上面，通过这个层可以集体设置物体显示不显示，或者加载不加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便进行高中低配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World的DataLayer系统，是针对World级别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>新地图加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::InitWorld(const InitializationValues IVS)</t>
+  </si>
+  <si>
+    <t>InitializeSubsystems();</t>
+  </si>
+  <si>
+    <t>void UWorld::InitializeSubsystems()</t>
+  </si>
+  <si>
+    <t>SubsystemCollection.Initialize(this);</t>
+  </si>
+  <si>
+    <t>World初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在初始化里面首先加载SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步就是加载SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集所有的World-SubSystem，进行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize</t>
+  </si>
+  <si>
+    <t>PostInitialize</t>
+  </si>
+  <si>
+    <t>通知初始化事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostInitializeSubsystems();</t>
+  </si>
+  <si>
+    <t>最后一步就是POST SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::PostInitializeSubsystems()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsystemCollection.PostInitialize(this);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorld(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>CleanupWorldInternal(bSessionEnded, bCleanupResources, NewWorld);</t>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorldInternal(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>SubsystemCollection.Deinitialize();</t>
+  </si>
+  <si>
+    <t>最后一步销毁SubSystem，但是和Actor的销毁还是不在一起，提前于Actor销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEditorEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>void UEditorEngine::EndPlayMap()</t>
+  </si>
+  <si>
+    <t>EndPlayMap();</t>
+  </si>
+  <si>
+    <t>TeardownPlaySession(ThisContext);</t>
+  </si>
+  <si>
+    <t>void UEditorEngine::TeardownPlaySession(FWorldContext&amp; PieWorldContext)</t>
+  </si>
+  <si>
+    <t>PlayWorld-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t> UWorldPartition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldPartition::OnWorldMatchStarting()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UWorldPartitionRuntimeCell : public UObject</t>
+  </si>
+  <si>
+    <t>class UWorldPartitionRuntimeSpatialHashCell : public UWorldPartitionRuntimeCell</t>
+  </si>
+  <si>
+    <t>class UWorldPartitionRuntimeLevelStreamingCell : public UWorldPartitionRuntimeSpatialHashCell</t>
+  </si>
+  <si>
+    <t>大世界的CELL格子信息，里面包含了对应的Actor和package资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界可以设置多个grid，但是每个grid下面就是cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULevelStreaming</t>
+  </si>
+  <si>
+    <t>ULevelStreamingDynamic</t>
+  </si>
+  <si>
+    <t>class ENGINE_API ULevelStreamingDynamic : public ULevelStreaming</t>
+  </si>
+  <si>
+    <t>UWorldPartitionLevelStreamingDynamic</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorldPartitionLevelStreamingDynamic : public ULevelStreamingDynamic</t>
+  </si>
+  <si>
+    <t>每一个CELL内部都包含一个UWorldPartitionLevelStreamingDynamic，也就是一个CELL就包含一个level stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeHash</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorldPartitionRuntimeSpatialHash : public UWorldPartitionRuntimeHash</t>
+  </si>
+  <si>
+    <t>UWorldPartition内对整个地图管理的就是TObjectPtr&lt;UWorldPartitionRuntimeHash&gt; RuntimeHash;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH里面包含的所有的Grids列表，每个Grid里面有包含了GridLevels列表，GridLevel 里面有包含了LayerCells列表，每一个LayerCell里面包含GridCells列表，这个里面就是下面的CELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGrid&gt; StreamingGrids;</t>
+  </si>
+  <si>
+    <t>所有的Grids列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (const FSpatialHashStreamingGrid&amp; StreamingGrid : StreamingGrids)</t>
+  </si>
+  <si>
+    <t>if (!StreamingGrid.bClientOnlyVisible || bShouldConsiderClientOnlyVisible)</t>
+  </si>
+  <si>
+    <t>for (const FSpatialHashStreamingGridLevel&amp; GridLevel : StreamingGrid.GridLevels)</t>
+  </si>
+  <si>
+    <t>for (const FSpatialHashStreamingGridLayerCell&amp; LayerCell : GridLevel.LayerCells)</t>
+  </si>
+  <si>
+    <t>for (const UWorldPartitionRuntimeSpatialHashCell* Cell : LayerCell.GridCells)</t>
+  </si>
+  <si>
+    <t>总体上就是WP模式下，会有多个Grid，每个Grid下面有多个GridLevel，每个GridLevel下面有多个LayerCell，每个LayerCell下面有多个GridCells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGrid&gt; StreamingGrids</t>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGrid</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGridLevel&gt; GridLevels;</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGridLayerCell&gt; LayerCells;</t>
+  </si>
+  <si>
+    <t>TArray&lt;TObjectPtr&lt;UWorldPartitionRuntimeSpatialHashCell&gt;&gt; GridCells;</t>
+  </si>
+  <si>
+    <t>TArray&lt;FName&gt; DataLayers;</t>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeLevelStreamingCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutable TObjectPtr&lt;class UWorldPartitionLevelStreamingDynamic&gt; LevelStreaming;</t>
+  </si>
+  <si>
+    <t>UWorldPartition</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;UWorldPartitionRuntimeHash&gt; RuntimeHash;</t>
+  </si>
+  <si>
+    <t>WP对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了Runtimehash对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的GridLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的LayerCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含了所有的cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个cell都包含了一个LevelStreaming对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个CELL都包含了一个levelstreaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionLevelStreamingDynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个cell都包含一个Level Streaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE5的WP是按照CELL管理的，每个CELL里面都有一个level streaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载新场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::PostInitializeSubsystems()</t>
+  </si>
+  <si>
+    <t>void UWorldPartitionSubsystem::PostInitialize()</t>
+  </si>
+  <si>
+    <t>WorldPartition-&gt;Initialize(GetWorld(), FTransform::Identity);</t>
+  </si>
+  <si>
+    <t>void UWorldPartition::Initialize(UWorld* InWorld, const FTransform&amp; InTransform)</t>
+  </si>
+  <si>
+    <t>void UWorldPartition::OnBeginPlay()</t>
+  </si>
+  <si>
+    <t>GenerateStreaming();</t>
+  </si>
+  <si>
+    <t>RuntimeHash-&gt;OnBeginPlay();</t>
+  </si>
+  <si>
+    <t>创建所有的grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncPackage::EventDrivenSerializeExport(int32 LocalExportIndex)</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::ProcessImportsAndExports_Event()</t>
+  </si>
+  <si>
+    <t>void FAsyncPackage::Event_ProcessImportsAndExports()</t>
+  </si>
+  <si>
+    <t>异步加载完资源后就会执行其对应的反序列化Serialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object-&gt;Serialize(*Linker);</t>
+  </si>
+  <si>
+    <t>UWorldPartition反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全就是在void AWorldSettings::Serialize( FArchive&amp; Ar )函数里面反序列出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其本身也是AWorldSettings的一个成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有对象成员变量，都是在父类Object的Serialize里面反序列化的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UObject::Serialize(FStructuredArchive::FRecord Record)</t>
+  </si>
+  <si>
+    <t>SerializeScriptProperties(Record.EnterField(SA_FIELD_NAME(TEXT("Properties"))));</t>
+  </si>
+  <si>
+    <t>！！！！初始化成员变量对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UWorldPartition父类的反序列化中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的反序列化，就构造了的WorldPartition最核心的RuntimeHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个在异步的线程里面操作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>第一步先加载资源，涉及到反序列化数据对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部开始初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldDelegates::OnPreWorldInitialization.Broadcast(this, IVS);</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Get().AddLevel(PersistentLevel);</t>
+  </si>
+  <si>
+    <t>FWorldDelegates::OnPostWorldInitialization.Broadcast(this, IVS);</t>
+  </si>
+  <si>
+    <t>广播完毕事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知开始创建事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置必要的PersistentLevel函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知所有SubSystem，初始化完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译所有的WorldSubSystem，执行PostInitialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用了UWorldPartitionSubsystem::PostInitialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界分区的SubSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取世界分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartition* WorldPartition = GetWorldPartition()</t>
+  </si>
+  <si>
+    <t>执行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界分区初始化完毕的回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnWorldPartitionInitialized.Broadcast(this);</t>
+  </si>
+  <si>
+    <t>第三部World的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;BeginPlay();</t>
+  </si>
+  <si>
+    <t>void UWorld::BeginPlay()</t>
+  </si>
+  <si>
+    <t>调用World的BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用各个SubSystem的OnWorldBeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (UWorldSubsystem* WorldSubsystem : WorldSubsystems)</t>
+  </si>
+  <si>
+    <t>WorldSubsystem-&gt;OnWorldBeginPlay(*this);</t>
+  </si>
+  <si>
+    <t>调用gameMode的BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode-&gt;StartPlay();</t>
+  </si>
+  <si>
+    <t>AGameModeBase* const GameMode = GetAuthGameMode();</t>
+  </si>
+  <si>
+    <t>if (GameMode)</t>
+  </si>
+  <si>
+    <t>if (GetAISystem())</t>
+  </si>
+  <si>
+    <t>GetAISystem()-&gt;StartPlay();</t>
+  </si>
+  <si>
+    <t>GameMode的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AISystem的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发World 的StartPlay事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnWorldBeginPlay.Broadcast();</t>
+  </si>
+  <si>
+    <t>需要看看在啥时候注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE_OneParam(FOnWorldInitializedActors, const FActorsInitializedParams&amp;);</t>
+  </si>
+  <si>
+    <t>FOnWorldInitializedActors OnActorsInitialized;</t>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE(FOnWorldBeginPlay);</t>
+  </si>
+  <si>
+    <t>FOnWorldBeginPlay OnWorldBeginPlay;</t>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE(FOnMatchStarting);</t>
+  </si>
+  <si>
+    <t>FOnMatchStarting OnWorldMatchStarting;</t>
+  </si>
+  <si>
+    <t>World的事件变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGameModeBase::StartPlay()</t>
+  </si>
+  <si>
+    <t>先调用gameState的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameState-&gt;HandleBeginPlay();</t>
+  </si>
+  <si>
+    <t>触发GameSetting的BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发GameSetting的MatchStarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AWorldSettings::NotifyMatchStarted()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发World的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而World注册了该事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发大世界的MatchStarting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会阻塞式的调用GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点看下面，这个函数里面会触发UWorldPartition::OnWorldMatchStarting()，这个里面会阻塞式的调用GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个greidlevel的意思就是按照CELL的大小，根据2C次幂，看看能划分多少层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和Level的关系???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个ULevelStreaming内部创建自己Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::UpdateLevelStreaming()</t>
+  </si>
+  <si>
+    <t>void ULevelStreaming::UpdateStreamingState(bool&amp; bOutUpdateAgain, bool&amp; bOutRedetermineTarget)</t>
+  </si>
+  <si>
+    <t>bool UWorldPartitionLevelStreamingDynamic::RequestLevel(UWorld* InPersistentWorld, bool bInAllowLevelLoadRequests, EReqLevelBlock InBlockPolicy)</t>
+  </si>
+  <si>
+    <t>记载场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRuntimeLevel();</t>
+  </si>
+  <si>
+    <t>void UWorldPartitionLevelStreamingDynamic::CreateRuntimeLevel()</t>
+  </si>
+  <si>
+    <t>内部创建Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldPartition-&gt;Initialize(GetWorld(), FTransform::Identity);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载对应的CELL的时候，其就在包里面被构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncPackage::EventDrivenCreateExport(int32 LocalExportIndex)</t>
+  </si>
+  <si>
+    <t>Export.Object = StaticConstructObject_Internal(Params);</t>
+  </si>
+  <si>
+    <t>void ULevel::PostInitProperties()</t>
+  </si>
+  <si>
+    <t>void ULevel::Serialize( FArchive&amp; Ar )</t>
+  </si>
+  <si>
+    <t>void ULevelStreaming::AsyncLevelLoadComplete(const FName&amp; InPackageName, UPackage* InLoadedPackage, EAsyncLoadingResult::Type Result)</t>
+  </si>
+  <si>
+    <t>LevelStream加载完成的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevelStreaming::PrepareLoadedLevel(ULevel* InLevel, UPackage* InLevelPackage, int32 InPIEInstanceID)</t>
+  </si>
+  <si>
+    <t>广播level加载完成的事件等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetLoadedLevel(InLevel);</t>
+  </si>
+  <si>
+    <t>OnLevelLoaded.Broadcast();</t>
+  </si>
+  <si>
+    <t>InLevel-&gt;HandleLegacyMapBuildData();</t>
+  </si>
+  <si>
+    <t>void ULevelStreaming::SetLoadedLevel(ULevel* Level)</t>
+  </si>
+  <si>
+    <t>CurrentState = (LoadedLevel-&gt;bIsVisible ? ECurrentState::LoadedVisible : ECurrentState::LoadedNotVisible);</t>
+  </si>
+  <si>
+    <t>加载完了，设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC.AddLevel(LoadedLevel);</t>
+  </si>
+  <si>
+    <t>World-&gt;UpdateStreamingLevelShouldBeConsidered(this);</t>
+  </si>
+  <si>
+    <t>OnLevelLoadedChanged(LoadedLevel);</t>
+  </si>
+  <si>
+    <t>LoadedLevel-&gt;OnLevelLoaded();</t>
+  </si>
+  <si>
+    <t>广播事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！加入World::Levels的时机是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::StartPlay()</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
+  </si>
+  <si>
+    <t>阻塞式加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过世界分区，开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在这个里面加入到world::levels里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushLevelStreaming(EFlushLevelStreamingType::Full);</t>
+  </si>
+  <si>
+    <t>UpdateLevelStreaming();</t>
+  </si>
+  <si>
+    <t>FStreamingLevelPrivateAccessor::UpdateStreamingState(StreamingLevel, bUpdateAgain, bRedetermineTarget);</t>
+  </si>
+  <si>
+    <t>World-&gt;AddToWorld(LoadedLevel, LevelTransform, !bShouldBlockOnLoad);</t>
+  </si>
+  <si>
+    <t>void UWorld::AddToWorld( ULevel* Level, const FTransform&amp; LevelTransform, bool bConsiderTimeLimit )</t>
+  </si>
+  <si>
+    <t>Levels.AddUnique( Level );</t>
+  </si>
+  <si>
+    <t>这个地方将各个Level加入到World::levels对象里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::RemoveFromWorld( ULevel* Level, bool bAllowIncrementalRemoval )</t>
+  </si>
+  <si>
+    <t>同理，删除自己是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LevelStreaming </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，在UE5的大世界分区里面，每个CELL内部都有一个LevelStreaming，在LevelStream加载的时候会默认创建对应的Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在LevelStream加载成功之后，会将其对应的Level加载到World::levels里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己被删除的时候，会将其Level从World:levels里面去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;class ULevel&gt; LoadedLevel;</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;class ULevel&gt; PendingUnloadLevel;</t>
+  </si>
+  <si>
+    <t>PostInitPropertis函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面的数据都反序列化好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitializeSubsystems();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeSpatialHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在非编辑器下，序列化场景的WorldSetting时，对应的UWorldPartitionRuntimeSpatialHash，和其Cell，Cell里面的LevelStreaming都已经生成好了 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续仅仅是后台的加载LevelStream里面的Level而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UDataLayerSubsystem</t>
-  </si>
-  <si>
-    <t>UE5的大世界，可以通过DataLayer将不同的物体防止在不同的层上面，通过这个层可以集体设置物体显示不显示，或者加载不加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便进行高中低配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>World的DataLayer系统，是针对World级别的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>新地图加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::InitWorld(const InitializationValues IVS)</t>
-  </si>
-  <si>
-    <t>InitializeSubsystems();</t>
-  </si>
-  <si>
-    <t>void UWorld::InitializeSubsystems()</t>
-  </si>
-  <si>
-    <t>SubsystemCollection.Initialize(this);</t>
-  </si>
-  <si>
-    <t>World初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在初始化里面首先加载SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一步就是加载SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集所有的World-SubSystem，进行初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initialize</t>
-  </si>
-  <si>
-    <t>PostInitialize</t>
-  </si>
-  <si>
-    <t>通知初始化事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostInitializeSubsystems();</t>
-  </si>
-  <si>
-    <t>最后一步就是POST SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::PostInitializeSubsystems()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsystemCollection.PostInitialize(this);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>WorldContext.World()-&gt;CleanupWorld();</t>
-  </si>
-  <si>
-    <t>void UWorld::CleanupWorld(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
-  </si>
-  <si>
-    <t>CleanupWorldInternal(bSessionEnded, bCleanupResources, NewWorld);</t>
-  </si>
-  <si>
-    <t>void UWorld::CleanupWorldInternal(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
-  </si>
-  <si>
-    <t>SubsystemCollection.Deinitialize();</t>
-  </si>
-  <si>
-    <t>最后一步销毁SubSystem，但是和Actor的销毁还是不在一起，提前于Actor销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UEditorEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
-  </si>
-  <si>
-    <t>void UEditorEngine::EndPlayMap()</t>
-  </si>
-  <si>
-    <t>EndPlayMap();</t>
-  </si>
-  <si>
-    <t>TeardownPlaySession(ThisContext);</t>
-  </si>
-  <si>
-    <t>void UEditorEngine::TeardownPlaySession(FWorldContext&amp; PieWorldContext)</t>
-  </si>
-  <si>
-    <t>PlayWorld-&gt;CleanupWorld();</t>
-  </si>
-  <si>
-    <t> UWorldPartition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorldPartition::OnWorldMatchStarting()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class UWorldPartitionRuntimeCell : public UObject</t>
-  </si>
-  <si>
-    <t>class UWorldPartitionRuntimeSpatialHashCell : public UWorldPartitionRuntimeCell</t>
-  </si>
-  <si>
-    <t>class UWorldPartitionRuntimeLevelStreamingCell : public UWorldPartitionRuntimeSpatialHashCell</t>
-  </si>
-  <si>
-    <t>大世界的CELL格子信息，里面包含了对应的Actor和package资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大世界可以设置多个grid，但是每个grid下面就是cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终的类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ULevelStreaming</t>
-  </si>
-  <si>
-    <t>ULevelStreamingDynamic</t>
-  </si>
-  <si>
-    <t>class ENGINE_API ULevelStreamingDynamic : public ULevelStreaming</t>
-  </si>
-  <si>
-    <t>UWorldPartitionLevelStreamingDynamic</t>
-  </si>
-  <si>
-    <t>class ENGINE_API UWorldPartitionLevelStreamingDynamic : public ULevelStreamingDynamic</t>
-  </si>
-  <si>
-    <t>每一个CELL内部都包含一个UWorldPartitionLevelStreamingDynamic，也就是一个CELL就包含一个level stream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorldPartitionRuntimeHash</t>
-  </si>
-  <si>
-    <t>class ENGINE_API UWorldPartitionRuntimeSpatialHash : public UWorldPartitionRuntimeHash</t>
-  </si>
-  <si>
-    <t>UWorldPartition内对整个地图管理的就是TObjectPtr&lt;UWorldPartitionRuntimeHash&gt; RuntimeHash;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HASH里面包含的所有的Grids列表，每个Grid里面有包含了GridLevels列表，GridLevel 里面有包含了LayerCells列表，每一个LayerCell里面包含GridCells列表，这个里面就是下面的CELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FSpatialHashStreamingGrid&gt; StreamingGrids;</t>
-  </si>
-  <si>
-    <t>所有的Grids列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (const FSpatialHashStreamingGrid&amp; StreamingGrid : StreamingGrids)</t>
-  </si>
-  <si>
-    <t>if (!StreamingGrid.bClientOnlyVisible || bShouldConsiderClientOnlyVisible)</t>
-  </si>
-  <si>
-    <t>for (const FSpatialHashStreamingGridLevel&amp; GridLevel : StreamingGrid.GridLevels)</t>
-  </si>
-  <si>
-    <t>for (const FSpatialHashStreamingGridLayerCell&amp; LayerCell : GridLevel.LayerCells)</t>
-  </si>
-  <si>
-    <t>for (const UWorldPartitionRuntimeSpatialHashCell* Cell : LayerCell.GridCells)</t>
-  </si>
-  <si>
-    <t>总体上就是WP模式下，会有多个Grid，每个Grid下面有多个GridLevel，每个GridLevel下面有多个LayerCell，每个LayerCell下面有多个GridCells</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FSpatialHashStreamingGrid&gt; StreamingGrids</t>
-  </si>
-  <si>
-    <t>FSpatialHashStreamingGrid</t>
-  </si>
-  <si>
-    <t>TArray&lt;FSpatialHashStreamingGridLevel&gt; GridLevels;</t>
-  </si>
-  <si>
-    <t>TArray&lt;FSpatialHashStreamingGridLayerCell&gt; LayerCells;</t>
-  </si>
-  <si>
-    <t>TArray&lt;TObjectPtr&lt;UWorldPartitionRuntimeSpatialHashCell&gt;&gt; GridCells;</t>
-  </si>
-  <si>
-    <t>TArray&lt;FName&gt; DataLayers;</t>
-  </si>
-  <si>
-    <t>UWorldPartitionRuntimeLevelStreamingCell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mutable TObjectPtr&lt;class UWorldPartitionLevelStreamingDynamic&gt; LevelStreaming;</t>
-  </si>
-  <si>
-    <t>UWorldPartition</t>
-  </si>
-  <si>
-    <t>TObjectPtr&lt;UWorldPartitionRuntimeHash&gt; RuntimeHash;</t>
-  </si>
-  <si>
-    <t>WP对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部包含了Runtimehash对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部包含了所有的Grid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部包含了所有的GridLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部包含了所有的LayerCell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部包含了所有的cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个cell都包含了一个LevelStreaming对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个CELL都包含了一个levelstreaming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorldPartitionLevelStreamingDynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个cell都包含一个Level Streaming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE5的WP是按照CELL管理的，每个CELL里面都有一个level streaming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载新场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::PostInitializeSubsystems()</t>
-  </si>
-  <si>
-    <t>void UWorldPartitionSubsystem::PostInitialize()</t>
-  </si>
-  <si>
-    <t>WorldPartition-&gt;Initialize(GetWorld(), FTransform::Identity);</t>
-  </si>
-  <si>
-    <t>void UWorldPartition::Initialize(UWorld* InWorld, const FTransform&amp; InTransform)</t>
-  </si>
-  <si>
-    <t>void UWorldPartition::OnBeginPlay()</t>
-  </si>
-  <si>
-    <t>GenerateStreaming();</t>
-  </si>
-  <si>
-    <t>RuntimeHash-&gt;OnBeginPlay();</t>
-  </si>
-  <si>
-    <t>创建所有的grids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非编辑器模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FAsyncPackage::EventDrivenSerializeExport(int32 LocalExportIndex)</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncPackage::ProcessImportsAndExports_Event()</t>
-  </si>
-  <si>
-    <t>void FAsyncPackage::Event_ProcessImportsAndExports()</t>
-  </si>
-  <si>
-    <t>异步加载完资源后就会执行其对应的反序列化Serialize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object-&gt;Serialize(*Linker);</t>
-  </si>
-  <si>
-    <t>UWorldPartition反序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorldPartition创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全就是在void AWorldSettings::Serialize( FArchive&amp; Ar )函数里面反序列出来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其本身也是AWorldSettings的一个成员变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有对象成员变量，都是在父类Object的Serialize里面反序列化的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UObject::Serialize(FStructuredArchive::FRecord Record)</t>
-  </si>
-  <si>
-    <t>SerializeScriptProperties(Record.EnterField(SA_FIELD_NAME(TEXT("Properties"))));</t>
-  </si>
-  <si>
-    <t>！！！！初始化成员变量对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在UWorldPartition父类的反序列化中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上面的反序列化，就构造了的WorldPartition最核心的RuntimeHash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个在异步的线程里面操作的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>第一步先加载资源，涉及到反序列化数据对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二部开始初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWorldDelegates::OnPreWorldInitialization.Broadcast(this, IVS);</t>
-  </si>
-  <si>
-    <t>IStreamingManager::Get().AddLevel(PersistentLevel);</t>
-  </si>
-  <si>
-    <t>FWorldDelegates::OnPostWorldInitialization.Broadcast(this, IVS);</t>
-  </si>
-  <si>
-    <t>广播完毕事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知开始创建事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置必要的PersistentLevel函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知所有SubSystem，初始化完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译所有的WorldSubSystem，执行PostInitialize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用了UWorldPartitionSubsystem::PostInitialize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界分区的SubSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取世界分区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorldPartition* WorldPartition = GetWorldPartition()</t>
-  </si>
-  <si>
-    <t>执行初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界分区初始化完毕的回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnWorldPartitionInitialized.Broadcast(this);</t>
-  </si>
-  <si>
-    <t>第三部World的StartPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldContext.World()-&gt;BeginPlay();</t>
-  </si>
-  <si>
-    <t>void UWorld::BeginPlay()</t>
-  </si>
-  <si>
-    <t>调用World的BeginPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用各个SubSystem的OnWorldBeginPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (UWorldSubsystem* WorldSubsystem : WorldSubsystems)</t>
-  </si>
-  <si>
-    <t>WorldSubsystem-&gt;OnWorldBeginPlay(*this);</t>
-  </si>
-  <si>
-    <t>调用gameMode的BeginPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameMode-&gt;StartPlay();</t>
-  </si>
-  <si>
-    <t>AGameModeBase* const GameMode = GetAuthGameMode();</t>
-  </si>
-  <si>
-    <t>if (GameMode)</t>
-  </si>
-  <si>
-    <t>if (GetAISystem())</t>
-  </si>
-  <si>
-    <t>GetAISystem()-&gt;StartPlay();</t>
-  </si>
-  <si>
-    <t>GameMode的StartPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AISystem的StartPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发World 的StartPlay事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnWorldBeginPlay.Broadcast();</t>
-  </si>
-  <si>
-    <t>需要看看在啥时候注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECLARE_MULTICAST_DELEGATE_OneParam(FOnWorldInitializedActors, const FActorsInitializedParams&amp;);</t>
-  </si>
-  <si>
-    <t>FOnWorldInitializedActors OnActorsInitialized;</t>
-  </si>
-  <si>
-    <t>DECLARE_MULTICAST_DELEGATE(FOnWorldBeginPlay);</t>
-  </si>
-  <si>
-    <t>FOnWorldBeginPlay OnWorldBeginPlay;</t>
-  </si>
-  <si>
-    <t>DECLARE_MULTICAST_DELEGATE(FOnMatchStarting);</t>
-  </si>
-  <si>
-    <t>FOnMatchStarting OnWorldMatchStarting;</t>
-  </si>
-  <si>
-    <t>World的事件变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGameModeBase::StartPlay()</t>
-  </si>
-  <si>
-    <t>先调用gameState的StartPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameState-&gt;HandleBeginPlay();</t>
-  </si>
-  <si>
-    <t>触发GameSetting的BeginPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发GameSetting的MatchStarted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AWorldSettings::NotifyMatchStarted()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发World的事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而World注册了该事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发大世界的MatchStarting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！！！！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会阻塞式的调用GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点看下面，这个函数里面会触发UWorldPartition::OnWorldMatchStarting()，这个里面会阻塞式的调用GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，这个greidlevel的意思就是按照CELL的大小，根据2C次幂，看看能划分多少层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和Level的关系???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个ULevelStreaming内部创建自己Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::UpdateLevelStreaming()</t>
-  </si>
-  <si>
-    <t>void ULevelStreaming::UpdateStreamingState(bool&amp; bOutUpdateAgain, bool&amp; bOutRedetermineTarget)</t>
-  </si>
-  <si>
-    <t>bool UWorldPartitionLevelStreamingDynamic::RequestLevel(UWorld* InPersistentWorld, bool bInAllowLevelLoadRequests, EReqLevelBlock InBlockPolicy)</t>
-  </si>
-  <si>
-    <t>记载场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateRuntimeLevel();</t>
-  </si>
-  <si>
-    <t>void UWorldPartitionLevelStreamingDynamic::CreateRuntimeLevel()</t>
-  </si>
-  <si>
-    <t>内部创建Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器模式下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置不同的物体在不同的layer，可以进行单独的控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以设置不同的层的状态，例如不加载等等，这样子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样子可以实现在低端机器上不显示某些层来提高效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldPartition-&gt;Initialize(GetWorld(), FTransform::Identity);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非编辑器模式下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载对应的CELL的时候，其就在包里面被构造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FAsyncPackage::EventDrivenCreateExport(int32 LocalExportIndex)</t>
-  </si>
-  <si>
-    <t>Export.Object = StaticConstructObject_Internal(Params);</t>
-  </si>
-  <si>
-    <t>void ULevel::PostInitProperties()</t>
-  </si>
-  <si>
-    <t>void ULevel::Serialize( FArchive&amp; Ar )</t>
-  </si>
-  <si>
-    <t>void ULevelStreaming::AsyncLevelLoadComplete(const FName&amp; InPackageName, UPackage* InLoadedPackage, EAsyncLoadingResult::Type Result)</t>
-  </si>
-  <si>
-    <t>LevelStream加载完成的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void ULevelStreaming::PrepareLoadedLevel(ULevel* InLevel, UPackage* InLevelPackage, int32 InPIEInstanceID)</t>
-  </si>
-  <si>
-    <t>广播level加载完成的事件等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetLoadedLevel(InLevel);</t>
-  </si>
-  <si>
-    <t>OnLevelLoaded.Broadcast();</t>
-  </si>
-  <si>
-    <t>InLevel-&gt;HandleLegacyMapBuildData();</t>
-  </si>
-  <si>
-    <t>void ULevelStreaming::SetLoadedLevel(ULevel* Level)</t>
-  </si>
-  <si>
-    <t>CurrentState = (LoadedLevel-&gt;bIsVisible ? ECurrentState::LoadedVisible : ECurrentState::LoadedNotVisible);</t>
-  </si>
-  <si>
-    <t>加载完了，设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LC.AddLevel(LoadedLevel);</t>
-  </si>
-  <si>
-    <t>World-&gt;UpdateStreamingLevelShouldBeConsidered(this);</t>
-  </si>
-  <si>
-    <t>OnLevelLoadedChanged(LoadedLevel);</t>
-  </si>
-  <si>
-    <t>LoadedLevel-&gt;OnLevelLoaded();</t>
-  </si>
-  <si>
-    <t>广播事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！加入World::Levels的时机是：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AGameModeBase::StartPlay()</t>
-  </si>
-  <si>
-    <t>GetWorld()-&gt;BlockTillLevelStreamingCompleted();</t>
-  </si>
-  <si>
-    <t>阻塞式加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过世界分区，开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就在这个里面加入到world::levels里面的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushLevelStreaming(EFlushLevelStreamingType::Full);</t>
-  </si>
-  <si>
-    <t>UpdateLevelStreaming();</t>
-  </si>
-  <si>
-    <t>FStreamingLevelPrivateAccessor::UpdateStreamingState(StreamingLevel, bUpdateAgain, bRedetermineTarget);</t>
-  </si>
-  <si>
-    <t>World-&gt;AddToWorld(LoadedLevel, LevelTransform, !bShouldBlockOnLoad);</t>
-  </si>
-  <si>
-    <t>void UWorld::AddToWorld( ULevel* Level, const FTransform&amp; LevelTransform, bool bConsiderTimeLimit )</t>
-  </si>
-  <si>
-    <t>Levels.AddUnique( Level );</t>
-  </si>
-  <si>
-    <t>这个地方将各个Level加入到World::levels对象里面了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::RemoveFromWorld( ULevel* Level, bool bAllowIncrementalRemoval )</t>
-  </si>
-  <si>
-    <t>同理，删除自己是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LevelStreaming </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以看到，在UE5的大世界分区里面，每个CELL内部都有一个LevelStreaming，在LevelStream加载的时候会默认创建对应的Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在LevelStream加载成功之后，会将其对应的Level加载到World::levels里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在自己被删除的时候，会将其Level从World:levels里面去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPROPERTY(transient)</t>
-  </si>
-  <si>
-    <t>TObjectPtr&lt;class ULevel&gt; LoadedLevel;</t>
-  </si>
-  <si>
-    <t>TObjectPtr&lt;class ULevel&gt; PendingUnloadLevel;</t>
-  </si>
-  <si>
-    <t>PostInitPropertis函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反序列化函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里面的数据都反序列化好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitializeSubsystems();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorldPartitionRuntimeSpatialHash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在非编辑器下，序列化场景的WorldSetting时，对应的UWorldPartitionRuntimeSpatialHash，和其Cell，Cell里面的LevelStreaming都已经生成好了 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续仅仅是后台的加载LevelStream里面的Level而已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDataLayerSubsystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1355,6 +1342,185 @@
   </si>
   <si>
     <t>可以看出来，UE5所谓的per Actor per file，那个每一个CELL里面的LevelStreaming，其内部的Level就是一个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级加载场景的时候，在World::里面会阻塞式的加载自己周围的所有LevelStreaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个会导致Loading的UI界面不动了，解决方案：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AMyWorldSettings::NotifyMatchStarted()</t>
+  </si>
+  <si>
+    <t>//World-&gt;OnWorldMatchStarting.Broadcast();</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止广播该消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！会导致阻塞的等待接在周围LevelStreaming完毕，导致Loading界面不动了！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float WorldBoundsMaxExtent = 0.f;</t>
+  </si>
+  <si>
+    <t>if (WorldBounds.IsValid)</t>
+  </si>
+  <si>
+    <t>const FVector2D DistMin = FMath::Abs(FVector2D(WorldBounds.Min - Origin));</t>
+  </si>
+  <si>
+    <t>const FVector2D DistMax = FMath::Abs(FVector2D(WorldBounds.Max - Origin));</t>
+  </si>
+  <si>
+    <t>WorldBoundsMaxExtent = FMath::Max(DistMin.GetMax(), DistMax.GetMax());</t>
+  </si>
+  <si>
+    <t>int32 GridSize = 1;</t>
+  </si>
+  <si>
+    <t>int32 GridLevelCount = 1;</t>
+  </si>
+  <si>
+    <t>if (WorldBoundsMaxExtent &gt; 0.f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GridSize = 2.f * FMath::CeilToFloat(WorldBoundsMaxExtent / CellSize); </t>
+  </si>
+  <si>
+    <t>if (!FMath::IsPowerOfTwo(GridSize))</t>
+  </si>
+  <si>
+    <t>GridSize = FMath::Pow(2.f, FMath::CeilToFloat(FMath::Log2(static_cast&lt;float&gt;(GridSize))));</t>
+  </si>
+  <si>
+    <t>GridLevelCount = FMath::FloorLog2(GridSize) + 1;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogWorldPartition, Warning, TEXT("Invalid world bounds, grid partitioning will use a runtime grid with 1 cell."));</t>
+  </si>
+  <si>
+    <t>取距离最大的X和Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离最大的除以cellsize，然后乘以2，表示总体的grid个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制2的N次幂对其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取2的N次幂+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min = {X=-1638400.0000000000 Y=-1638400.0000000000 Z=-1638400.0000000000}</t>
+  </si>
+  <si>
+    <t>Max = {X=1638400.0000000000 Y=1638400.0000000000 Z=1638400.0000000000}</t>
+  </si>
+  <si>
+    <t>const FBox&amp; InWorldBounds</t>
+  </si>
+  <si>
+    <t>算出来的GridSize就是318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用上面的512算出来gridlevelcount就是10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridsize换算成512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid个数计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制2的N次幂对其，用最大边来做，这样子结果就是正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levels.Reserve(GridLevelCount);</t>
+  </si>
+  <si>
+    <t>int32 CurrentCellSize = CellSize;</t>
+  </si>
+  <si>
+    <t>int32 CurrentGridSize = GridSize;</t>
+  </si>
+  <si>
+    <t>for (int32 Level = 0; Level &lt; GridLevelCount; ++Level)</t>
+  </si>
+  <si>
+    <t>int32 LevelGridSize = CurrentGridSize;</t>
+  </si>
+  <si>
+    <t>if (!GRuntimeSpatialHashUseAlignedGridLevels)</t>
+  </si>
+  <si>
+    <t>// Except for top level, adding 1 to CurrentGridSize (which is always a power of 2) breaks the pattern of perfectly aligned cell edges between grid level cells.</t>
+  </si>
+  <si>
+    <t>// This will prevent weird artefact during actor promotion when an actor is placed using its bounds and which overlaps multiple cells.</t>
+  </si>
+  <si>
+    <t>// In this situation, the algorithm will try to find a cell that encapsulates completely the actor's bounds by searching in the upper levels, until it finds one.</t>
+  </si>
+  <si>
+    <t>// Also note that, the default origin of each level will always be centered at the middle of the bounds of (level's cellsize * level's grid size).</t>
+  </si>
+  <si>
+    <t>LevelGridSize = (Level == GridLevelCount - 1) ? CurrentGridSize : CurrentGridSize + 1;</t>
+  </si>
+  <si>
+    <t>Levels.Emplace(FVector2D(InOrigin), CurrentCellSize, LevelGridSize, Level);</t>
+  </si>
+  <si>
+    <t>CurrentCellSize &lt;&lt;= 1;</t>
+  </si>
+  <si>
+    <t>CurrentGridSize &gt;&gt;= 1;</t>
+  </si>
+  <si>
+    <t>一层一层的计算，第0层就是CELL和GRID个数，再往上就是加倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不阻塞会导致地形没加载，玩家无法进行站立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,7 +1528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,12 +1599,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1460,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1469,7 +1629,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1865,7 +2024,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -2057,12 +2216,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C5F93F-DB7F-4B2B-B3EC-377E0749A148}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2078,35 +2250,35 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -2117,10 +2289,10 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2129,10 +2301,10 @@
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="6"/>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2150,10 +2322,10 @@
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2161,7 +2333,7 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2171,10 +2343,10 @@
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2192,10 +2364,10 @@
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2213,10 +2385,10 @@
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="6"/>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2233,7 +2405,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2242,10 +2414,10 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2253,7 +2425,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2302,59 +2474,59 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C45" s="6"/>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C49" s="6"/>
       <c r="T49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
@@ -2369,17 +2541,17 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
@@ -2389,7 +2561,7 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -2399,101 +2571,101 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
       <c r="D87" t="s">
+        <v>299</v>
+      </c>
+      <c r="R87" t="s">
         <v>300</v>
-      </c>
-      <c r="R87" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
       <c r="E88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
       <c r="D89" t="s">
+        <v>302</v>
+      </c>
+      <c r="L89" t="s">
         <v>303</v>
-      </c>
-      <c r="L89" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
@@ -2501,13 +2673,13 @@
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
@@ -2516,157 +2688,157 @@
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E117" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E118" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E121" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I125" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D127" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D128" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E132" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="5:12" x14ac:dyDescent="0.2">
@@ -2694,20 +2866,20 @@
         <v>47</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F138" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
@@ -2717,37 +2889,37 @@
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I141" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
       <c r="J142" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I143" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="5:12" x14ac:dyDescent="0.2">
       <c r="J144" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I145" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J146" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I147" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -2755,28 +2927,28 @@
     <row r="148" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K148" s="2"/>
       <c r="P148" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I150" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J151" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2804,7 +2976,7 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -2825,76 +2997,76 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="F14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="F17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="G20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -3026,7 +3198,7 @@
     </row>
     <row r="51" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="7:16" x14ac:dyDescent="0.2">
@@ -3096,18 +3268,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE2F34-037F-4CB7-B392-0E5907AFDF56}">
   <dimension ref="A2:S104"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3129,7 +3301,7 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3151,7 +3323,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3163,7 +3335,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3210,61 +3382,61 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F21" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
@@ -3273,154 +3445,154 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
         <v>239</v>
-      </c>
-      <c r="E32" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
+        <v>249</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I49" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I51" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
@@ -3431,34 +3603,34 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="5:15" x14ac:dyDescent="0.2">
@@ -3468,7 +3640,7 @@
     </row>
     <row r="68" spans="5:15" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="5:15" x14ac:dyDescent="0.2">
@@ -3478,17 +3650,17 @@
     </row>
     <row r="71" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="5:15" x14ac:dyDescent="0.2">
@@ -3498,25 +3670,25 @@
     </row>
     <row r="75" spans="5:15" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="5:15" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="5:15" x14ac:dyDescent="0.2">
       <c r="I77" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="5:15" x14ac:dyDescent="0.2">
       <c r="J78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="5:15" x14ac:dyDescent="0.2">
@@ -3529,7 +3701,7 @@
         <v>38</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.2">
@@ -3537,18 +3709,21 @@
         <v>39</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.2">
       <c r="M82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.2">
       <c r="N83" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O83" s="6"/>
     </row>
@@ -3557,30 +3732,30 @@
         <v>43</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.2">
       <c r="N85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.2">
       <c r="N86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.2">
       <c r="S87" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.2">
@@ -3590,10 +3765,10 @@
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.2">
       <c r="H90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.2">
@@ -3608,50 +3783,50 @@
     </row>
     <row r="94" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E94" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="5:19" x14ac:dyDescent="0.2">
       <c r="F95" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95" t="s">
         <v>273</v>
-      </c>
-      <c r="J95" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" spans="5:19" x14ac:dyDescent="0.2">
       <c r="O96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4149,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3988,7 +4163,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4002,7 +4177,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4039,32 +4214,32 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4074,70 +4249,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:C47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="23" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="30" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="36" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-    </row>
-    <row r="42" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-    </row>
-    <row r="47" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C47" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4AADD-8FF1-4882-B509-E21C26BEADE8}">
   <dimension ref="B4:T58"/>
   <sheetViews>
@@ -4149,7 +4260,7 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4157,7 +4268,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -4165,28 +4276,28 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -4201,71 +4312,71 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.2">
@@ -4273,107 +4384,107 @@
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E46" s="2"/>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E47" s="2"/>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E48" s="2"/>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E49" s="2"/>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.2">
@@ -4384,40 +4495,40 @@
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4425,4 +4536,520 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1A98FD-370B-45BC-9887-40F27932675F}">
+  <dimension ref="B2:T33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>367</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E4A708-F31B-44AE-888A-4DA5F8E3A0FF}">
+  <dimension ref="C3:T59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+      <c r="S12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>375</v>
+      </c>
+      <c r="N13" t="s">
+        <v>385</v>
+      </c>
+      <c r="R13" t="s">
+        <v>389</v>
+      </c>
+      <c r="T13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="N19" t="s">
+        <v>386</v>
+      </c>
+      <c r="T19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" t="s">
+        <v>387</v>
+      </c>
+      <c r="T22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N24" t="s">
+        <v>388</v>
+      </c>
+      <c r="T24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>412</v>
+      </c>
+      <c r="K37" t="s">
+        <v>389</v>
+      </c>
+      <c r="M37" t="s">
+        <v>414</v>
+      </c>
+      <c r="N37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>413</v>
+      </c>
+      <c r="M38">
+        <v>512</v>
+      </c>
+      <c r="N38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>398</v>
+      </c>
+      <c r="M39">
+        <v>256</v>
+      </c>
+      <c r="N39">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>399</v>
+      </c>
+      <c r="M40">
+        <v>128</v>
+      </c>
+      <c r="N40">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>400</v>
+      </c>
+      <c r="M41">
+        <v>64</v>
+      </c>
+      <c r="N41">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>401</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+      <c r="N42">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>16</v>
+      </c>
+      <c r="N43">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>402</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>1280000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2560000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>5120000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B516C-223E-4153-A0E1-65B8F3622A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9349A8BA-9FA7-4334-9EDF-D1E82BE3BB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="UDataLayerSubsystem" sheetId="7" r:id="rId7"/>
     <sheet name="初次进入时阻塞加载原因" sheetId="9" r:id="rId8"/>
     <sheet name="Grid-CELL计算方式" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
+    <sheet name="PersistentLevel" sheetId="11" r:id="rId10"/>
+    <sheet name="hlod" sheetId="12" r:id="rId11"/>
+    <sheet name="流送源" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="495">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,276 +1253,551 @@
     <t>World-&gt;AddToWorld(LoadedLevel, LevelTransform, !bShouldBlockOnLoad);</t>
   </si>
   <si>
+    <t>Levels.AddUnique( Level );</t>
+  </si>
+  <si>
+    <t>这个地方将各个Level加入到World::levels对象里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::RemoveFromWorld( ULevel* Level, bool bAllowIncrementalRemoval )</t>
+  </si>
+  <si>
+    <t>同理，删除自己是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LevelStreaming </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，在UE5的大世界分区里面，每个CELL内部都有一个LevelStreaming，在LevelStream加载的时候会默认创建对应的Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在LevelStream加载成功之后，会将其对应的Level加载到World::levels里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己被删除的时候，会将其Level从World:levels里面去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;class ULevel&gt; LoadedLevel;</t>
+  </si>
+  <si>
+    <t>TObjectPtr&lt;class ULevel&gt; PendingUnloadLevel;</t>
+  </si>
+  <si>
+    <t>PostInitPropertis函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面的数据都反序列化好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitializeSubsystems();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionRuntimeSpatialHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在非编辑器下，序列化场景的WorldSetting时，对应的UWorldPartitionRuntimeSpatialHash，和其Cell，Cell里面的LevelStreaming都已经生成好了 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续仅仅是后台的加载LevelStream里面的Level而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDataLayerSubsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Unloaded);</t>
+  </si>
+  <si>
+    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Loaded);</t>
+  </si>
+  <si>
+    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Activated);</t>
+  </si>
+  <si>
+    <t>if (UDataLayerSubsystem* DataLayerSubsystem = GetWorld()-&gt;GetSubsystem&lt;UDataLayerSubsystem&gt;())</t>
+  </si>
+  <si>
+    <t>可以看出来，UE5所谓的per Actor per file，那个每一个CELL里面的LevelStreaming，其内部的Level就是一个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级加载场景的时候，在World::里面会阻塞式的加载自己周围的所有LevelStreaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个会导致Loading的UI界面不动了，解决方案：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AMyWorldSettings::NotifyMatchStarted()</t>
+  </si>
+  <si>
+    <t>//World-&gt;OnWorldMatchStarting.Broadcast();</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止广播该消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！会导致阻塞的等待接在周围LevelStreaming完毕，导致Loading界面不动了！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float WorldBoundsMaxExtent = 0.f;</t>
+  </si>
+  <si>
+    <t>if (WorldBounds.IsValid)</t>
+  </si>
+  <si>
+    <t>const FVector2D DistMin = FMath::Abs(FVector2D(WorldBounds.Min - Origin));</t>
+  </si>
+  <si>
+    <t>const FVector2D DistMax = FMath::Abs(FVector2D(WorldBounds.Max - Origin));</t>
+  </si>
+  <si>
+    <t>WorldBoundsMaxExtent = FMath::Max(DistMin.GetMax(), DistMax.GetMax());</t>
+  </si>
+  <si>
+    <t>int32 GridSize = 1;</t>
+  </si>
+  <si>
+    <t>int32 GridLevelCount = 1;</t>
+  </si>
+  <si>
+    <t>if (WorldBoundsMaxExtent &gt; 0.f)</t>
+  </si>
+  <si>
+    <t>if (!FMath::IsPowerOfTwo(GridSize))</t>
+  </si>
+  <si>
+    <t>GridSize = FMath::Pow(2.f, FMath::CeilToFloat(FMath::Log2(static_cast&lt;float&gt;(GridSize))));</t>
+  </si>
+  <si>
+    <t>GridLevelCount = FMath::FloorLog2(GridSize) + 1;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogWorldPartition, Warning, TEXT("Invalid world bounds, grid partitioning will use a runtime grid with 1 cell."));</t>
+  </si>
+  <si>
+    <t>取距离最大的X和Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离最大的除以cellsize，然后乘以2，表示总体的grid个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制2的N次幂对其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取2的N次幂+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min = {X=-1638400.0000000000 Y=-1638400.0000000000 Z=-1638400.0000000000}</t>
+  </si>
+  <si>
+    <t>Max = {X=1638400.0000000000 Y=1638400.0000000000 Z=1638400.0000000000}</t>
+  </si>
+  <si>
+    <t>const FBox&amp; InWorldBounds</t>
+  </si>
+  <si>
+    <t>算出来的GridSize就是318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用上面的512算出来gridlevelcount就是10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridsize换算成512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid个数计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制2的N次幂对其，用最大边来做，这样子结果就是正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levels.Reserve(GridLevelCount);</t>
+  </si>
+  <si>
+    <t>int32 CurrentCellSize = CellSize;</t>
+  </si>
+  <si>
+    <t>int32 CurrentGridSize = GridSize;</t>
+  </si>
+  <si>
+    <t>for (int32 Level = 0; Level &lt; GridLevelCount; ++Level)</t>
+  </si>
+  <si>
+    <t>int32 LevelGridSize = CurrentGridSize;</t>
+  </si>
+  <si>
+    <t>if (!GRuntimeSpatialHashUseAlignedGridLevels)</t>
+  </si>
+  <si>
+    <t>// Except for top level, adding 1 to CurrentGridSize (which is always a power of 2) breaks the pattern of perfectly aligned cell edges between grid level cells.</t>
+  </si>
+  <si>
+    <t>// This will prevent weird artefact during actor promotion when an actor is placed using its bounds and which overlaps multiple cells.</t>
+  </si>
+  <si>
+    <t>// In this situation, the algorithm will try to find a cell that encapsulates completely the actor's bounds by searching in the upper levels, until it finds one.</t>
+  </si>
+  <si>
+    <t>// Also note that, the default origin of each level will always be centered at the middle of the bounds of (level's cellsize * level's grid size).</t>
+  </si>
+  <si>
+    <t>LevelGridSize = (Level == GridLevelCount - 1) ? CurrentGridSize : CurrentGridSize + 1;</t>
+  </si>
+  <si>
+    <t>Levels.Emplace(FVector2D(InOrigin), CurrentCellSize, LevelGridSize, Level);</t>
+  </si>
+  <si>
+    <t>CurrentCellSize &lt;&lt;= 1;</t>
+  </si>
+  <si>
+    <t>CurrentGridSize &gt;&gt;= 1;</t>
+  </si>
+  <si>
+    <t>一层一层的计算，第0层就是CELL和GRID个数，再往上就是加倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不阻塞会导致地形没加载，玩家无法进行站立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GridSize = 2.f * FMath::CeilToFloat(WorldBoundsMaxExtent / CellSize); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照场景包围盒大小，CELL大小，计算有多少GRID个数，和多少层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层的改变就是按照2的倍数一点点扩大CELL大小，最终整个地图就只有一个CELL了（大的物体肯定能放进去，最差的就是放入整个地图CELL）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算基础的CELL和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层的占用格子数用HASH来管理，而不是二维数组，因为太浪费了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个CELL上都有不同的datalayer，每一层就代表一个C++层的cell对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个可以设置单独的加载、显示隐藏等处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的场景对象，按照其包围盒的大小，计算应该分配到那一层的哪一个格子上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时需要根据datalayer数据，放在一个CELL的不同层上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同层的CELL大小不一样，如果当前层放不下就需要放在其上一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionStreamingPolicy::UpdateStreamingState()</t>
+  </si>
+  <si>
+    <t>UWorldPartition::UpdateStreamingState()</t>
+  </si>
+  <si>
+    <t>在WP每帧的判断里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前的CELL，有数据层，且数据层是LOAD或者ACTIVE的话，才会被加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前的CELL没有数据层，那么也会被加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个UWorldPartitionRuntimeCell都会包含自己的datalayer名字数组，然后在DataLayerSubsystem里面看起状态（因为前者包含的是一个数组，所以只要一个满足就可以了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载且显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加载且不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World中全局的东西都在PersistentLevel里面防止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersistentLevel</t>
+  </si>
+  <si>
+    <t>AWorldDataLayers* UWorld::GetWorldDataLayers() const</t>
+  </si>
+  <si>
+    <t>AWorldDataLayers* WorldDataLayers = nullptr;</t>
+  </si>
+  <si>
+    <t>if (PersistentLevel)</t>
+  </si>
+  <si>
+    <t>WorldDataLayers = PersistentLevel-&gt;GetWorldDataLayers();</t>
+  </si>
+  <si>
+    <t>return WorldDataLayers;</t>
+  </si>
+  <si>
+    <t>DataLayers的数据都存在主关卡里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想比较好的通知DataLayer，需要在加载之前就设置好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在这个里面提前设置好高中低版本，等加载的时候会判断DataLayer的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在主关卡里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CELL对应的datalayers就是其内部Actor的datalayer集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过datalayer的标志进行判断是否更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void UWorld::AddToWorld( ULevel* Level, const FTransform&amp; LevelTransform, bool bConsiderTimeLimit )</t>
-  </si>
-  <si>
-    <t>Levels.AddUnique( Level );</t>
-  </si>
-  <si>
-    <t>这个地方将各个Level加入到World::levels对象里面了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::RemoveFromWorld( ULevel* Level, bool bAllowIncrementalRemoval )</t>
-  </si>
-  <si>
-    <t>同理，删除自己是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LevelStreaming </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以看到，在UE5的大世界分区里面，每个CELL内部都有一个LevelStreaming，在LevelStream加载的时候会默认创建对应的Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在LevelStream加载成功之后，会将其对应的Level加载到World::levels里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在自己被删除的时候，会将其Level从World:levels里面去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPROPERTY(transient)</t>
-  </si>
-  <si>
-    <t>TObjectPtr&lt;class ULevel&gt; LoadedLevel;</t>
-  </si>
-  <si>
-    <t>TObjectPtr&lt;class ULevel&gt; PendingUnloadLevel;</t>
-  </si>
-  <si>
-    <t>PostInitPropertis函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反序列化函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里面的数据都反序列化好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitializeSubsystems();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorldPartitionRuntimeSpatialHash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在非编辑器下，序列化场景的WorldSetting时，对应的UWorldPartitionRuntimeSpatialHash，和其Cell，Cell里面的LevelStreaming都已经生成好了 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续仅仅是后台的加载LevelStream里面的Level而已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDataLayerSubsystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Unloaded);</t>
-  </si>
-  <si>
-    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Loaded);</t>
-  </si>
-  <si>
-    <t>DataLayerSubsystem-&gt;SetDataLayerRuntimeStateByLabel(TEXT("layer01"), EDataLayerRuntimeState::Activated);</t>
-  </si>
-  <si>
-    <t>if (UDataLayerSubsystem* DataLayerSubsystem = GetWorld()-&gt;GetSubsystem&lt;UDataLayerSubsystem&gt;())</t>
-  </si>
-  <si>
-    <t>可以看出来，UE5所谓的per Actor per file，那个每一个CELL里面的LevelStreaming，其内部的Level就是一个文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级加载场景的时候，在World::里面会阻塞式的加载自己周围的所有LevelStreaming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个会导致Loading的UI界面不动了，解决方案：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AMyWorldSettings::NotifyMatchStarted()</t>
-  </si>
-  <si>
-    <t>//World-&gt;OnWorldMatchStarting.Broadcast();</t>
-  </si>
-  <si>
-    <t>解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止广播该消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！会导致阻塞的等待接在周围LevelStreaming完毕，导致Loading界面不动了！！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float WorldBoundsMaxExtent = 0.f;</t>
-  </si>
-  <si>
-    <t>if (WorldBounds.IsValid)</t>
-  </si>
-  <si>
-    <t>const FVector2D DistMin = FMath::Abs(FVector2D(WorldBounds.Min - Origin));</t>
-  </si>
-  <si>
-    <t>const FVector2D DistMax = FMath::Abs(FVector2D(WorldBounds.Max - Origin));</t>
-  </si>
-  <si>
-    <t>WorldBoundsMaxExtent = FMath::Max(DistMin.GetMax(), DistMax.GetMax());</t>
-  </si>
-  <si>
-    <t>int32 GridSize = 1;</t>
-  </si>
-  <si>
-    <t>int32 GridLevelCount = 1;</t>
-  </si>
-  <si>
-    <t>if (WorldBoundsMaxExtent &gt; 0.f)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GridSize = 2.f * FMath::CeilToFloat(WorldBoundsMaxExtent / CellSize); </t>
-  </si>
-  <si>
-    <t>if (!FMath::IsPowerOfTwo(GridSize))</t>
-  </si>
-  <si>
-    <t>GridSize = FMath::Pow(2.f, FMath::CeilToFloat(FMath::Log2(static_cast&lt;float&gt;(GridSize))));</t>
-  </si>
-  <si>
-    <t>GridLevelCount = FMath::FloorLog2(GridSize) + 1;</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogWorldPartition, Warning, TEXT("Invalid world bounds, grid partitioning will use a runtime grid with 1 cell."));</t>
-  </si>
-  <si>
-    <t>取距离最大的X和Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离最大的除以cellsize，然后乘以2，表示总体的grid个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制2的N次幂对其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取2的N次幂+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min = {X=-1638400.0000000000 Y=-1638400.0000000000 Z=-1638400.0000000000}</t>
-  </si>
-  <si>
-    <t>Max = {X=1638400.0000000000 Y=1638400.0000000000 Z=1638400.0000000000}</t>
-  </si>
-  <si>
-    <t>const FBox&amp; InWorldBounds</t>
-  </si>
-  <si>
-    <t>算出来的GridSize就是318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用上面的512算出来gridlevelcount就是10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gridsize换算成512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid个数计算方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制2的N次幂对其，用最大边来做，这样子结果就是正方形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Levels.Reserve(GridLevelCount);</t>
-  </si>
-  <si>
-    <t>int32 CurrentCellSize = CellSize;</t>
-  </si>
-  <si>
-    <t>int32 CurrentGridSize = GridSize;</t>
-  </si>
-  <si>
-    <t>for (int32 Level = 0; Level &lt; GridLevelCount; ++Level)</t>
-  </si>
-  <si>
-    <t>int32 LevelGridSize = CurrentGridSize;</t>
-  </si>
-  <si>
-    <t>if (!GRuntimeSpatialHashUseAlignedGridLevels)</t>
-  </si>
-  <si>
-    <t>// Except for top level, adding 1 to CurrentGridSize (which is always a power of 2) breaks the pattern of perfectly aligned cell edges between grid level cells.</t>
-  </si>
-  <si>
-    <t>// This will prevent weird artefact during actor promotion when an actor is placed using its bounds and which overlaps multiple cells.</t>
-  </si>
-  <si>
-    <t>// In this situation, the algorithm will try to find a cell that encapsulates completely the actor's bounds by searching in the upper levels, until it finds one.</t>
-  </si>
-  <si>
-    <t>// Also note that, the default origin of each level will always be centered at the middle of the bounds of (level's cellsize * level's grid size).</t>
-  </si>
-  <si>
-    <t>LevelGridSize = (Level == GridLevelCount - 1) ? CurrentGridSize : CurrentGridSize + 1;</t>
-  </si>
-  <si>
-    <t>Levels.Emplace(FVector2D(InOrigin), CurrentCellSize, LevelGridSize, Level);</t>
-  </si>
-  <si>
-    <t>CurrentCellSize &lt;&lt;= 1;</t>
-  </si>
-  <si>
-    <t>CurrentGridSize &gt;&gt;= 1;</t>
-  </si>
-  <si>
-    <t>一层一层的计算，第0层就是CELL和GRID个数，再往上就是加倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不阻塞会导致地形没加载，玩家无法进行站立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!UHLODSubsystem::IsHLODEnabled())</t>
+  </si>
+  <si>
+    <t>// Remove all HLOD cells from the Activate &amp; Load cells</t>
+  </si>
+  <si>
+    <t>auto RemoveHLODCells = [](TSet&lt;const UWorldPartitionRuntimeCell*&gt;&amp; Cells)</t>
+  </si>
+  <si>
+    <t>for (auto It = Cells.CreateIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>if ((*It)-&gt;GetIsHLOD())</t>
+  </si>
+  <si>
+    <t>It.RemoveCurrent();</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>RemoveHLODCells(ActivateStreamingCells);</t>
+  </si>
+  <si>
+    <t>RemoveHLODCells(LoadStreamingCells);</t>
+  </si>
+  <si>
+    <t>判断HLOD启动了没有，如果没有，则删除相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UHLODSubsystem::IsHLODEnabled()</t>
+  </si>
+  <si>
+    <t>return UHLODSubsystem::WorldPartitionHLODEnabled;</t>
+  </si>
+  <si>
+    <t>系统判断HLOD开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPlayer是一种流送源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldPartitionStreamingSourceComponent也是一种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldPartitionStreamingPolicy::UpdateStreamingSources()</t>
+  </si>
+  <si>
+    <t>UWorld* World = WorldPartition-&gt;GetWorld();</t>
+  </si>
+  <si>
+    <t>const ENetMode NetMode = World-&gt;GetNetMode();</t>
+  </si>
+  <si>
+    <t>if (NetMode == NM_Standalone || NetMode == NM_Client || AWorldPartitionReplay::IsEnabled(World))</t>
+  </si>
+  <si>
+    <t>const int32 NumPlayers = GEngine-&gt;GetNumGamePlayers(World);</t>
+  </si>
+  <si>
+    <t>for (int32 PlayerIndex = 0; PlayerIndex &lt; NumPlayers; ++PlayerIndex)</t>
+  </si>
+  <si>
+    <t>ULocalPlayer* Player = GEngine-&gt;GetGamePlayer(World, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>if (Player &amp;&amp; Player-&gt;PlayerController &amp;&amp; Player-&gt;PlayerController-&gt;IsStreamingSourceEnabled())</t>
+  </si>
+  <si>
+    <t>FVector ViewLocation;</t>
+  </si>
+  <si>
+    <t>FRotator ViewRotation;</t>
+  </si>
+  <si>
+    <t>Player-&gt;PlayerController-&gt;GetPlayerViewPoint(ViewLocation, ViewRotation);</t>
+  </si>
+  <si>
+    <t>const EStreamingSourceTargetState TargetState = Player-&gt;PlayerController-&gt;StreamingSourceShouldActivate() ? EStreamingSourceTargetState::Activated : EStreamingSourceTargetState::Loaded;</t>
+  </si>
+  <si>
+    <t>const bool bBlockOnSlowLoading = Player-&gt;PlayerController-&gt;StreamingSourceShouldBlockOnSlowStreaming();</t>
+  </si>
+  <si>
+    <t>StreamingSources.Add(FWorldPartitionStreamingSource(Player-&gt;PlayerController-&gt;GetFName(), ViewLocation, ViewRotation, TargetState, bBlockOnSlowLoading, EStreamingSourcePriority::Default));</t>
+  </si>
+  <si>
+    <t>for (IWorldPartitionStreamingSourceProvider* StreamingSourceProvider : WorldPartition-&gt;StreamingSourceProviders)</t>
+  </si>
+  <si>
+    <t>FWorldPartitionStreamingSource StreamingSource;</t>
+  </si>
+  <si>
+    <t>// Default Streaming Source provider's priority to be less than those based on player controllers</t>
+  </si>
+  <si>
+    <t>StreamingSource.Priority = EStreamingSourcePriority::Low;</t>
+  </si>
+  <si>
+    <t>if (StreamingSourceProvider-&gt;GetStreamingSource(StreamingSource))</t>
+  </si>
+  <si>
+    <t>StreamingSources.Add(StreamingSource);</t>
+  </si>
+  <si>
+    <t>查看所有的LocalPlayer位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPlayer也是一种流送源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用UWorldPartitionStreamingSourceComponent组件的也是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以生成一个Actor，然后添加该组件就可以了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP会根据源位置来计算周围需要加载的网格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初次进入场景时，设置该Actor的时机是？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2218,14 +2495,468 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C5F93F-DB7F-4B2B-B3EC-377E0749A148}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1819DC9-C2DD-43BD-9DA0-C639EB5806D1}">
+  <dimension ref="C5:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACFE656-B8C2-4EA8-8F76-067F9EC6237E}">
+  <dimension ref="B4:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2233,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U151"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="M156" sqref="M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2255,17 +2986,17 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -2492,7 +3223,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C45" s="6"/>
       <c r="P45" t="s">
@@ -2558,23 +3289,32 @@
       <c r="B63" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="N63" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="T63" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>193</v>
       </c>
@@ -2582,37 +3322,55 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N74" t="s">
+        <v>431</v>
+      </c>
+      <c r="O74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N75" t="s">
+        <v>432</v>
+      </c>
+      <c r="O75" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>433</v>
+      </c>
+      <c r="O76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>173</v>
       </c>
@@ -2707,7 +3465,7 @@
         <v>310</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.2">
@@ -2730,7 +3488,7 @@
         <v>223</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.2">
@@ -2919,7 +3677,7 @@
     </row>
     <row r="147" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I147" s="2" t="s">
-        <v>338</v>
+        <v>453</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -2927,11 +3685,11 @@
     <row r="148" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K148" s="2"/>
       <c r="P148" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
@@ -2943,12 +3701,12 @@
     </row>
     <row r="150" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I150" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J151" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +4026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE2F34-037F-4CB7-B392-0E5907AFDF56}">
   <dimension ref="A2:S104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
@@ -3468,7 +4226,7 @@
         <v>196</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>290</v>
@@ -3494,7 +4252,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.2">
@@ -3712,7 +4470,7 @@
         <v>285</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.2">
@@ -3840,7 +4598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -4149,7 +4907,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4163,7 +4921,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4177,7 +4935,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4214,32 +4972,32 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4250,284 +5008,353 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4AADD-8FF1-4882-B509-E21C26BEADE8}">
-  <dimension ref="B4:T58"/>
+  <dimension ref="B1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D21" s="2" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="L29" s="1"/>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D31" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D32" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
         <v>126</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
         <v>140</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
         <v>145</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D42" s="2" t="s">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E43" s="2" t="s">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E44" s="2"/>
-      <c r="F44" t="s">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="2"/>
+      <c r="F53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E45" s="2"/>
-      <c r="G45" t="s">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+      <c r="G54" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E46" s="2"/>
-      <c r="F46" t="s">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="2"/>
+      <c r="F55" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E47" s="2"/>
-      <c r="G47" t="s">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="2"/>
+      <c r="G56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E48" s="2"/>
-      <c r="F48" t="s">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="2"/>
+      <c r="F57" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E49" s="2"/>
-      <c r="G49" t="s">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E58" s="2"/>
+      <c r="G58" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E52" s="2" t="s">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E61" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+    <row r="65" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
+    <row r="66" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
+    <row r="67" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>153</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4542,7 +5369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1A98FD-370B-45BC-9887-40F27932675F}">
   <dimension ref="B2:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -4550,12 +5377,12 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
@@ -4569,7 +5396,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -4577,7 +5404,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -4601,10 +5428,10 @@
         <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -4652,7 +5479,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4664,10 +5491,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E4A708-F31B-44AE-888A-4DA5F8E3A0FF}">
-  <dimension ref="C3:T59"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4675,381 +5502,615 @@
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>396</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>397</v>
-      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>374</v>
-      </c>
-      <c r="S12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>375</v>
-      </c>
-      <c r="N13" t="s">
-        <v>385</v>
-      </c>
-      <c r="R13" t="s">
-        <v>389</v>
-      </c>
-      <c r="T13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>378</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>18</v>
+      <c r="D18" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>379</v>
-      </c>
-      <c r="N19" t="s">
-        <v>386</v>
-      </c>
-      <c r="T19" t="s">
-        <v>393</v>
+        <v>373</v>
+      </c>
+      <c r="S19" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>380</v>
+        <v>374</v>
+      </c>
+      <c r="N20" t="s">
+        <v>383</v>
+      </c>
+      <c r="R20" t="s">
+        <v>387</v>
+      </c>
+      <c r="T20" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>18</v>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>381</v>
-      </c>
-      <c r="N22" t="s">
-        <v>387</v>
-      </c>
-      <c r="T22" t="s">
-        <v>395</v>
+      <c r="C22" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>21</v>
+      <c r="C23" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>382</v>
-      </c>
-      <c r="N24" t="s">
-        <v>388</v>
-      </c>
-      <c r="T24" t="s">
-        <v>394</v>
+      <c r="C24" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>383</v>
+      <c r="D26" t="s">
+        <v>415</v>
+      </c>
+      <c r="N26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T26" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>18</v>
+      <c r="D27" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>384</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>379</v>
+      </c>
+      <c r="N29" t="s">
+        <v>385</v>
+      </c>
+      <c r="T29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>380</v>
+      </c>
+      <c r="N31" t="s">
+        <v>386</v>
+      </c>
+      <c r="T31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>410</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="K37" t="s">
-        <v>389</v>
-      </c>
-      <c r="M37" t="s">
-        <v>414</v>
-      </c>
-      <c r="N37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="L38" t="s">
+      <c r="N44" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="M38">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M45" s="1">
         <v>512</v>
       </c>
-      <c r="N38">
+      <c r="N45" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>256</v>
+      </c>
+      <c r="N46" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>128</v>
+      </c>
+      <c r="N47" s="1">
+        <v>40000</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
         <v>398</v>
       </c>
-      <c r="M39">
-        <v>256</v>
-      </c>
-      <c r="N39">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>64</v>
+      </c>
+      <c r="N48" s="1">
+        <v>80000</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
         <v>399</v>
       </c>
-      <c r="M40">
-        <v>128</v>
-      </c>
-      <c r="N40">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>32</v>
+      </c>
+      <c r="N49" s="1">
+        <v>160000</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
+        <v>16</v>
+      </c>
+      <c r="N50" s="1">
+        <v>320000</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
         <v>400</v>
       </c>
-      <c r="M41">
-        <v>64</v>
-      </c>
-      <c r="N41">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>8</v>
+      </c>
+      <c r="N51" s="1">
+        <v>640000</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
+        <v>4</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
         <v>401</v>
       </c>
-      <c r="M42">
-        <v>32</v>
-      </c>
-      <c r="N42">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="M43">
-        <v>16</v>
-      </c>
-      <c r="N43">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5120000</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
         <v>402</v>
       </c>
-      <c r="M44">
-        <v>8</v>
-      </c>
-      <c r="N44">
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M45">
-        <v>4</v>
-      </c>
-      <c r="N45">
-        <v>1280000</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
+    </row>
+    <row r="56" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
         <v>403</v>
       </c>
-      <c r="M46">
+    </row>
+    <row r="57" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>2</v>
       </c>
-      <c r="N46">
-        <v>2560000</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>5120000</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>21</v>
-      </c>
+      <c r="B69" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9349A8BA-9FA7-4334-9EDF-D1E82BE3BB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B74227-A999-408F-BDB4-E58CA9E476BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="496">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1798,6 +1798,10 @@
   </si>
   <si>
     <t>初次进入场景时，设置该Actor的时机是？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！可动态设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2731,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACFE656-B8C2-4EA8-8F76-067F9EC6237E}">
   <dimension ref="B4:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -5010,96 +5014,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4AADD-8FF1-4882-B509-E21C26BEADE8}">
   <dimension ref="B1:T67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="R8" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>425</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">

--- a/doc/ue5_worldpartition.xlsx
+++ b/doc/ue5_worldpartition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B74227-A999-408F-BDB4-E58CA9E476BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316FE060-6C4D-4B7F-B46E-22C628F2AA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="PersistentLevel" sheetId="11" r:id="rId10"/>
     <sheet name="hlod" sheetId="12" r:id="rId11"/>
     <sheet name="流送源" sheetId="13" r:id="rId12"/>
+    <sheet name="场景对象" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="528">
   <si>
     <t>UE5的大世界分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1802,6 +1803,103 @@
   </si>
   <si>
     <t>！！！！可动态设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AWorldPartitionHLOD]</t>
+  </si>
+  <si>
+    <t>(Name=HLOD0_Instancing_00000000adcdef81)</t>
+  </si>
+  <si>
+    <t>AWorldPartitionHLOD</t>
+  </si>
+  <si>
+    <t>[UTexture2D]</t>
+  </si>
+  <si>
+    <t>(Name=HLOD0_OpenWorld_MainGrid_L2_X0_Y0_DL0T_LandscapeStreamingProxy_D7T4VF4LBP34PHV9XOEVM5TIG_1_6_5_0_BaseColor)</t>
+  </si>
+  <si>
+    <t>UTexture2D</t>
+  </si>
+  <si>
+    <t>(Name=Heightmap_1)</t>
+  </si>
+  <si>
+    <t>[UStaticMesh]</t>
+  </si>
+  <si>
+    <t>(Name=StaticMesh_HLOD0_Instancing_7)</t>
+  </si>
+  <si>
+    <t>UStaticMesh</t>
+  </si>
+  <si>
+    <t>[UNavCollision]</t>
+  </si>
+  <si>
+    <t>(Name=NavCollision_0)</t>
+  </si>
+  <si>
+    <t>UNavCollision</t>
+  </si>
+  <si>
+    <t>[ULandscapeMeshProxyComponent]</t>
+  </si>
+  <si>
+    <t>(Name=LandscapeMeshProxyComponent_7)</t>
+  </si>
+  <si>
+    <t>ULandscapeMeshProxyComponent</t>
+  </si>
+  <si>
+    <t>[ULandscapeMaterialInstanceConstant]</t>
+  </si>
+  <si>
+    <t>(Name=LandscapeMaterialInstanceConstant_2)</t>
+  </si>
+  <si>
+    <t>ULandscapeMaterialInstanceConstant</t>
+  </si>
+  <si>
+    <t>[ULandscapeLODStreamingProxy]</t>
+  </si>
+  <si>
+    <t>(Name=LandscapeLODStreamingProxy)</t>
+  </si>
+  <si>
+    <t>ULandscapeLODStreamingProxy</t>
+  </si>
+  <si>
+    <t>[ULandscapeHeightfieldCollisionComponent]</t>
+  </si>
+  <si>
+    <t>(Name=LandscapeHeightfieldCollisionComponent_380)</t>
+  </si>
+  <si>
+    <t>ULandscapeHeightfieldCollisionComponent</t>
+  </si>
+  <si>
+    <t>[ULandscapeComponent]</t>
+  </si>
+  <si>
+    <t>(Name=LandscapeComponent_151)</t>
+  </si>
+  <si>
+    <t>ULandscapeComponent</t>
+  </si>
+  <si>
+    <t>[UBodySetup]</t>
+  </si>
+  <si>
+    <t>(Name=BodySetup_0)</t>
+  </si>
+  <si>
+    <t>UBodySetup</t>
+  </si>
+  <si>
+    <t>大世界里面包含的对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2964,6 +3062,154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB503F-1FBE-4CCB-8D60-820B3A3C3721}">
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="113.75" customWidth="1"/>
+    <col min="4" max="4" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C28" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" t="s">
+        <v>525</v>
+      </c>
+      <c r="D34" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U151"/>
@@ -5014,7 +5260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4AADD-8FF1-4882-B509-E21C26BEADE8}">
   <dimension ref="B1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
